--- a/test/Menu.xlsx
+++ b/test/Menu.xlsx
@@ -202,6 +202,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="R2" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+ // 普通红点
+Normal = 0,
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC2" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+ // 普通红点
+Normal = 0,
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -274,7 +304,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="72">
   <si>
     <t>int</t>
   </si>
@@ -662,8 +692,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -711,6 +741,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -720,7 +758,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -742,39 +794,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -789,7 +811,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -811,6 +833,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -818,24 +848,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -892,7 +922,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,85 +1054,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1000,67 +1072,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1116,22 +1146,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1151,17 +1176,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1171,30 +1190,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1213,16 +1208,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1231,16 +1261,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1249,115 +1279,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1718,14 +1748,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:AC116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="T88" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomRight" activeCell="A92" sqref="$A92:$XFD116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1744,11 +1774,13 @@
     <col min="12" max="14" width="24.25" style="2" customWidth="1"/>
     <col min="15" max="15" width="17" style="2" customWidth="1"/>
     <col min="16" max="16" width="16.5" style="2" customWidth="1"/>
-    <col min="17" max="17" width="17.625" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="2"/>
+    <col min="17" max="19" width="17.625" style="2" customWidth="1"/>
+    <col min="20" max="28" width="18.5" style="1" customWidth="1"/>
+    <col min="29" max="29" width="17.625" style="2" customWidth="1"/>
+    <col min="30" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" spans="1:17">
+    <row r="1" ht="20.25" spans="1:29">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1800,8 +1832,42 @@
       <c r="Q1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" ht="20.25" spans="1:17">
+      <c r="R1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" ht="20.25" spans="1:29">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1853,8 +1919,42 @@
       <c r="Q2" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" ht="20.25" spans="1:17">
+      <c r="R2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" ht="20.25" spans="1:29">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1906,8 +2006,42 @@
       <c r="Q3" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" ht="20.25" spans="1:17">
+      <c r="R3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" ht="20.25" spans="1:29">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1959,8 +2093,42 @@
       <c r="Q4" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" s="7" customFormat="1" spans="1:17">
+      <c r="R4" s="5">
+        <v>3</v>
+      </c>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5">
+        <v>3</v>
+      </c>
+      <c r="U4" s="5">
+        <v>3</v>
+      </c>
+      <c r="V4" s="5">
+        <v>3</v>
+      </c>
+      <c r="W4" s="5">
+        <v>3</v>
+      </c>
+      <c r="X4" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>3</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" s="7" customFormat="1" spans="1:29">
       <c r="A5" s="10">
         <v>100</v>
       </c>
@@ -2008,8 +2176,41 @@
       <c r="Q5" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" s="8" customFormat="1" spans="1:17">
+      <c r="R5" s="7">
+        <v>0</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="W5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="X5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="8" customFormat="1" spans="1:29">
       <c r="A6" s="12">
         <v>101</v>
       </c>
@@ -2054,8 +2255,41 @@
       <c r="Q6" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" s="8" customFormat="1" spans="1:17">
+      <c r="R6" s="8">
+        <v>0</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="X6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="8" customFormat="1" spans="1:29">
       <c r="A7" s="12">
         <v>202</v>
       </c>
@@ -2105,8 +2339,41 @@
       <c r="Q7" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" s="8" customFormat="1" spans="1:17">
+      <c r="R7" s="8">
+        <v>0</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="W7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="X7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="8" customFormat="1" spans="1:29">
       <c r="A8" s="12">
         <v>207</v>
       </c>
@@ -2156,8 +2423,41 @@
       <c r="Q8" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" s="8" customFormat="1" spans="1:17">
+      <c r="R8" s="8">
+        <v>0</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="U8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="V8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="W8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="X8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="8" customFormat="1" spans="1:29">
       <c r="A9" s="12">
         <v>208</v>
       </c>
@@ -2207,8 +2507,41 @@
       <c r="Q9" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" s="8" customFormat="1" spans="1:17">
+      <c r="R9" s="8">
+        <v>0</v>
+      </c>
+      <c r="T9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="U9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="V9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="W9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="X9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" s="8" customFormat="1" spans="1:29">
       <c r="A10" s="12">
         <v>402</v>
       </c>
@@ -2252,8 +2585,41 @@
       <c r="Q10" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" s="8" customFormat="1" spans="1:17">
+      <c r="R10" s="8">
+        <v>0</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="U10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="V10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="W10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="X10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" s="8" customFormat="1" spans="1:29">
       <c r="A11" s="12">
         <v>401</v>
       </c>
@@ -2297,8 +2663,41 @@
       <c r="Q11" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" s="8" customFormat="1" spans="1:17">
+      <c r="R11" s="8">
+        <v>0</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="U11" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="V11" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="W11" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="X11" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y11" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z11" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA11" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB11" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" s="8" customFormat="1" spans="1:29">
       <c r="A12" s="12">
         <v>700</v>
       </c>
@@ -2343,8 +2742,41 @@
       <c r="Q12" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" s="8" customFormat="1" spans="1:17">
+      <c r="R12" s="8">
+        <v>0</v>
+      </c>
+      <c r="T12" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="U12" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="V12" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="W12" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="X12" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y12" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z12" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA12" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB12" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" s="8" customFormat="1" spans="1:29">
       <c r="A13" s="12">
         <v>900</v>
       </c>
@@ -2389,8 +2821,41 @@
       <c r="Q13" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" s="8" customFormat="1" spans="1:17">
+      <c r="R13" s="8">
+        <v>0</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="U13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="V13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="W13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="X13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" s="8" customFormat="1" spans="1:29">
       <c r="A14" s="12">
         <v>901</v>
       </c>
@@ -2432,8 +2897,41 @@
       <c r="Q14" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" s="8" customFormat="1" spans="1:17">
+      <c r="R14" s="8">
+        <v>0</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="U14" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="V14" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="W14" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="X14" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y14" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z14" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA14" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB14" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" s="8" customFormat="1" spans="1:29">
       <c r="A15" s="12">
         <v>503001</v>
       </c>
@@ -2475,8 +2973,41 @@
       <c r="Q15" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" s="9" customFormat="1" spans="1:17">
+      <c r="R15" s="8">
+        <v>0</v>
+      </c>
+      <c r="T15" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U15" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="V15" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="W15" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="X15" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y15" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z15" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA15" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB15" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC15" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" s="9" customFormat="1" spans="1:29">
       <c r="A16" s="13">
         <v>1000003</v>
       </c>
@@ -2522,8 +3053,41 @@
       <c r="Q16" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" s="8" customFormat="1" spans="1:17">
+      <c r="R16" s="9">
+        <v>0</v>
+      </c>
+      <c r="T16" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="U16" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="V16" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="W16" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="X16" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y16" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z16" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA16" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB16" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" s="8" customFormat="1" spans="1:29">
       <c r="A17" s="12">
         <v>2000001</v>
       </c>
@@ -2566,6 +3130,7817 @@
         <v>0</v>
       </c>
       <c r="Q17" s="8">
+        <v>0</v>
+      </c>
+      <c r="R17" s="8">
+        <v>0</v>
+      </c>
+      <c r="T17" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U17" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V17" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W17" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X17" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y17" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z17" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA17" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB17" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC17" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" s="8" customFormat="1" spans="1:29">
+      <c r="A18" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="8">
+        <v>4</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0</v>
+      </c>
+      <c r="J18" s="8">
+        <v>0</v>
+      </c>
+      <c r="K18" s="8">
+        <v>0</v>
+      </c>
+      <c r="L18" s="8">
+        <v>4</v>
+      </c>
+      <c r="M18" s="8">
+        <v>4</v>
+      </c>
+      <c r="N18" s="8">
+        <v>2</v>
+      </c>
+      <c r="O18" s="7">
+        <v>0</v>
+      </c>
+      <c r="P18" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>0</v>
+      </c>
+      <c r="R18" s="8">
+        <v>0</v>
+      </c>
+      <c r="T18" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U18" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V18" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W18" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X18" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y18" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z18" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA18" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB18" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC18" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" s="8" customFormat="1" spans="1:29">
+      <c r="A19" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="8">
+        <v>4</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0</v>
+      </c>
+      <c r="K19" s="8">
+        <v>0</v>
+      </c>
+      <c r="L19" s="8">
+        <v>4</v>
+      </c>
+      <c r="M19" s="8">
+        <v>4</v>
+      </c>
+      <c r="N19" s="8">
+        <v>2</v>
+      </c>
+      <c r="O19" s="7">
+        <v>0</v>
+      </c>
+      <c r="P19" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>0</v>
+      </c>
+      <c r="R19" s="8">
+        <v>0</v>
+      </c>
+      <c r="T19" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U19" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V19" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W19" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X19" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y19" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z19" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA19" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB19" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC19" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" s="8" customFormat="1" spans="1:29">
+      <c r="A20" s="12">
+        <v>900</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="8">
+        <v>4</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0</v>
+      </c>
+      <c r="I20" s="8">
+        <v>1</v>
+      </c>
+      <c r="J20" s="8">
+        <v>1</v>
+      </c>
+      <c r="K20" s="8">
+        <v>0</v>
+      </c>
+      <c r="L20" s="8">
+        <v>4</v>
+      </c>
+      <c r="M20" s="8">
+        <v>8</v>
+      </c>
+      <c r="N20" s="8">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7">
+        <v>0</v>
+      </c>
+      <c r="P20" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>0</v>
+      </c>
+      <c r="R20" s="8">
+        <v>0</v>
+      </c>
+      <c r="T20" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="U20" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="V20" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="W20" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="X20" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y20" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z20" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA20" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB20" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" s="8" customFormat="1" spans="1:29">
+      <c r="A21" s="12">
+        <v>901</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="F21" s="8">
+        <v>4</v>
+      </c>
+      <c r="H21" s="8">
+        <v>0</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0</v>
+      </c>
+      <c r="J21" s="8">
+        <v>0</v>
+      </c>
+      <c r="K21" s="8">
+        <v>0</v>
+      </c>
+      <c r="L21" s="8">
+        <v>0</v>
+      </c>
+      <c r="M21" s="8">
+        <v>1</v>
+      </c>
+      <c r="N21" s="8">
+        <v>1</v>
+      </c>
+      <c r="O21" s="7">
+        <v>0</v>
+      </c>
+      <c r="P21" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>0</v>
+      </c>
+      <c r="R21" s="8">
+        <v>0</v>
+      </c>
+      <c r="T21" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="U21" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="V21" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="W21" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="X21" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y21" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z21" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA21" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB21" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC21" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" s="8" customFormat="1" spans="1:29">
+      <c r="A22" s="12">
+        <v>503001</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="F22" s="8">
+        <v>11</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0</v>
+      </c>
+      <c r="I22" s="8">
+        <v>0</v>
+      </c>
+      <c r="J22" s="8">
+        <v>0</v>
+      </c>
+      <c r="K22" s="8">
+        <v>0</v>
+      </c>
+      <c r="L22" s="8">
+        <v>4</v>
+      </c>
+      <c r="M22" s="8">
+        <v>4</v>
+      </c>
+      <c r="N22" s="8">
+        <v>2</v>
+      </c>
+      <c r="O22" s="7">
+        <v>0</v>
+      </c>
+      <c r="P22" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>0</v>
+      </c>
+      <c r="R22" s="8">
+        <v>0</v>
+      </c>
+      <c r="T22" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U22" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="V22" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="W22" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="X22" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y22" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z22" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA22" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB22" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" s="9" customFormat="1" spans="1:29">
+      <c r="A23" s="13">
+        <v>1000003</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="15">
+        <v>3</v>
+      </c>
+      <c r="G23" s="16"/>
+      <c r="H23" s="9">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9">
+        <v>1</v>
+      </c>
+      <c r="J23" s="9">
+        <v>0</v>
+      </c>
+      <c r="K23" s="9">
+        <v>-1</v>
+      </c>
+      <c r="L23" s="9">
+        <v>0</v>
+      </c>
+      <c r="M23" s="9">
+        <v>0</v>
+      </c>
+      <c r="N23" s="9">
+        <v>0</v>
+      </c>
+      <c r="O23" s="9">
+        <v>0</v>
+      </c>
+      <c r="P23" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>0</v>
+      </c>
+      <c r="R23" s="9">
+        <v>0</v>
+      </c>
+      <c r="T23" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="U23" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="V23" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="W23" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="X23" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y23" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z23" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA23" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB23" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" s="8" customFormat="1" spans="1:29">
+      <c r="A24" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="8">
+        <v>4</v>
+      </c>
+      <c r="H24" s="8">
+        <v>0</v>
+      </c>
+      <c r="I24" s="8">
+        <v>0</v>
+      </c>
+      <c r="J24" s="8">
+        <v>0</v>
+      </c>
+      <c r="K24" s="8">
+        <v>0</v>
+      </c>
+      <c r="L24" s="8">
+        <v>4</v>
+      </c>
+      <c r="M24" s="8">
+        <v>4</v>
+      </c>
+      <c r="N24" s="8">
+        <v>2</v>
+      </c>
+      <c r="O24" s="7">
+        <v>0</v>
+      </c>
+      <c r="P24" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>0</v>
+      </c>
+      <c r="R24" s="8">
+        <v>0</v>
+      </c>
+      <c r="T24" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U24" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V24" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W24" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X24" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y24" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z24" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA24" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB24" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC24" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" s="8" customFormat="1" spans="1:29">
+      <c r="A25" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="8">
+        <v>4</v>
+      </c>
+      <c r="H25" s="8">
+        <v>0</v>
+      </c>
+      <c r="I25" s="8">
+        <v>0</v>
+      </c>
+      <c r="J25" s="8">
+        <v>0</v>
+      </c>
+      <c r="K25" s="8">
+        <v>0</v>
+      </c>
+      <c r="L25" s="8">
+        <v>4</v>
+      </c>
+      <c r="M25" s="8">
+        <v>4</v>
+      </c>
+      <c r="N25" s="8">
+        <v>2</v>
+      </c>
+      <c r="O25" s="7">
+        <v>0</v>
+      </c>
+      <c r="P25" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="8">
+        <v>0</v>
+      </c>
+      <c r="R25" s="8">
+        <v>0</v>
+      </c>
+      <c r="T25" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U25" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V25" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W25" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X25" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y25" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z25" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA25" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB25" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" s="8" customFormat="1" spans="1:29">
+      <c r="A26" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="8">
+        <v>4</v>
+      </c>
+      <c r="H26" s="8">
+        <v>0</v>
+      </c>
+      <c r="I26" s="8">
+        <v>0</v>
+      </c>
+      <c r="J26" s="8">
+        <v>0</v>
+      </c>
+      <c r="K26" s="8">
+        <v>0</v>
+      </c>
+      <c r="L26" s="8">
+        <v>4</v>
+      </c>
+      <c r="M26" s="8">
+        <v>4</v>
+      </c>
+      <c r="N26" s="8">
+        <v>2</v>
+      </c>
+      <c r="O26" s="7">
+        <v>0</v>
+      </c>
+      <c r="P26" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="8">
+        <v>0</v>
+      </c>
+      <c r="R26" s="8">
+        <v>0</v>
+      </c>
+      <c r="T26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" s="8" customFormat="1" spans="1:29">
+      <c r="A27" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="8">
+        <v>4</v>
+      </c>
+      <c r="H27" s="8">
+        <v>0</v>
+      </c>
+      <c r="I27" s="8">
+        <v>0</v>
+      </c>
+      <c r="J27" s="8">
+        <v>0</v>
+      </c>
+      <c r="K27" s="8">
+        <v>0</v>
+      </c>
+      <c r="L27" s="8">
+        <v>4</v>
+      </c>
+      <c r="M27" s="8">
+        <v>4</v>
+      </c>
+      <c r="N27" s="8">
+        <v>2</v>
+      </c>
+      <c r="O27" s="7">
+        <v>0</v>
+      </c>
+      <c r="P27" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>0</v>
+      </c>
+      <c r="R27" s="8">
+        <v>0</v>
+      </c>
+      <c r="T27" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U27" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V27" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W27" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X27" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y27" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z27" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA27" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB27" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC27" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" s="8" customFormat="1" spans="1:29">
+      <c r="A28" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="8">
+        <v>4</v>
+      </c>
+      <c r="H28" s="8">
+        <v>0</v>
+      </c>
+      <c r="I28" s="8">
+        <v>0</v>
+      </c>
+      <c r="J28" s="8">
+        <v>0</v>
+      </c>
+      <c r="K28" s="8">
+        <v>0</v>
+      </c>
+      <c r="L28" s="8">
+        <v>4</v>
+      </c>
+      <c r="M28" s="8">
+        <v>4</v>
+      </c>
+      <c r="N28" s="8">
+        <v>2</v>
+      </c>
+      <c r="O28" s="7">
+        <v>0</v>
+      </c>
+      <c r="P28" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>0</v>
+      </c>
+      <c r="R28" s="8">
+        <v>0</v>
+      </c>
+      <c r="T28" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U28" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V28" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W28" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X28" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y28" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z28" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA28" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB28" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC28" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" s="8" customFormat="1" spans="1:29">
+      <c r="A29" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="8">
+        <v>4</v>
+      </c>
+      <c r="H29" s="8">
+        <v>0</v>
+      </c>
+      <c r="I29" s="8">
+        <v>0</v>
+      </c>
+      <c r="J29" s="8">
+        <v>0</v>
+      </c>
+      <c r="K29" s="8">
+        <v>0</v>
+      </c>
+      <c r="L29" s="8">
+        <v>4</v>
+      </c>
+      <c r="M29" s="8">
+        <v>4</v>
+      </c>
+      <c r="N29" s="8">
+        <v>2</v>
+      </c>
+      <c r="O29" s="7">
+        <v>0</v>
+      </c>
+      <c r="P29" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>0</v>
+      </c>
+      <c r="R29" s="8">
+        <v>0</v>
+      </c>
+      <c r="T29" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U29" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V29" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W29" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X29" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y29" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z29" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA29" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB29" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC29" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" s="8" customFormat="1" spans="1:29">
+      <c r="A30" s="12">
+        <v>900</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="8">
+        <v>4</v>
+      </c>
+      <c r="H30" s="8">
+        <v>0</v>
+      </c>
+      <c r="I30" s="8">
+        <v>1</v>
+      </c>
+      <c r="J30" s="8">
+        <v>1</v>
+      </c>
+      <c r="K30" s="8">
+        <v>0</v>
+      </c>
+      <c r="L30" s="8">
+        <v>4</v>
+      </c>
+      <c r="M30" s="8">
+        <v>8</v>
+      </c>
+      <c r="N30" s="8">
+        <v>0</v>
+      </c>
+      <c r="O30" s="7">
+        <v>0</v>
+      </c>
+      <c r="P30" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="8">
+        <v>0</v>
+      </c>
+      <c r="R30" s="8">
+        <v>0</v>
+      </c>
+      <c r="T30" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="U30" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="V30" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="W30" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="X30" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y30" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z30" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA30" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB30" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC30" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" s="8" customFormat="1" spans="1:29">
+      <c r="A31" s="12">
+        <v>901</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="F31" s="8">
+        <v>4</v>
+      </c>
+      <c r="H31" s="8">
+        <v>0</v>
+      </c>
+      <c r="I31" s="8">
+        <v>0</v>
+      </c>
+      <c r="J31" s="8">
+        <v>0</v>
+      </c>
+      <c r="K31" s="8">
+        <v>0</v>
+      </c>
+      <c r="L31" s="8">
+        <v>0</v>
+      </c>
+      <c r="M31" s="8">
+        <v>1</v>
+      </c>
+      <c r="N31" s="8">
+        <v>1</v>
+      </c>
+      <c r="O31" s="7">
+        <v>0</v>
+      </c>
+      <c r="P31" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="8">
+        <v>0</v>
+      </c>
+      <c r="R31" s="8">
+        <v>0</v>
+      </c>
+      <c r="T31" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="U31" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="V31" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="W31" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="X31" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y31" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z31" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA31" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB31" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC31" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" s="8" customFormat="1" spans="1:29">
+      <c r="A32" s="12">
+        <v>503001</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="F32" s="8">
+        <v>11</v>
+      </c>
+      <c r="H32" s="8">
+        <v>0</v>
+      </c>
+      <c r="I32" s="8">
+        <v>0</v>
+      </c>
+      <c r="J32" s="8">
+        <v>0</v>
+      </c>
+      <c r="K32" s="8">
+        <v>0</v>
+      </c>
+      <c r="L32" s="8">
+        <v>4</v>
+      </c>
+      <c r="M32" s="8">
+        <v>4</v>
+      </c>
+      <c r="N32" s="8">
+        <v>2</v>
+      </c>
+      <c r="O32" s="7">
+        <v>0</v>
+      </c>
+      <c r="P32" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="8">
+        <v>0</v>
+      </c>
+      <c r="R32" s="8">
+        <v>0</v>
+      </c>
+      <c r="T32" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U32" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="V32" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="W32" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="X32" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y32" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z32" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA32" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB32" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC32" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" s="9" customFormat="1" spans="1:29">
+      <c r="A33" s="13">
+        <v>1000003</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="15">
+        <v>3</v>
+      </c>
+      <c r="G33" s="16"/>
+      <c r="H33" s="9">
+        <v>0</v>
+      </c>
+      <c r="I33" s="9">
+        <v>1</v>
+      </c>
+      <c r="J33" s="9">
+        <v>0</v>
+      </c>
+      <c r="K33" s="9">
+        <v>-1</v>
+      </c>
+      <c r="L33" s="9">
+        <v>0</v>
+      </c>
+      <c r="M33" s="9">
+        <v>0</v>
+      </c>
+      <c r="N33" s="9">
+        <v>0</v>
+      </c>
+      <c r="O33" s="9">
+        <v>0</v>
+      </c>
+      <c r="P33" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="9">
+        <v>0</v>
+      </c>
+      <c r="R33" s="9">
+        <v>0</v>
+      </c>
+      <c r="T33" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="U33" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="V33" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="W33" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="X33" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y33" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z33" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA33" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB33" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC33" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" s="8" customFormat="1" spans="1:29">
+      <c r="A34" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="8">
+        <v>4</v>
+      </c>
+      <c r="H34" s="8">
+        <v>0</v>
+      </c>
+      <c r="I34" s="8">
+        <v>0</v>
+      </c>
+      <c r="J34" s="8">
+        <v>0</v>
+      </c>
+      <c r="K34" s="8">
+        <v>0</v>
+      </c>
+      <c r="L34" s="8">
+        <v>4</v>
+      </c>
+      <c r="M34" s="8">
+        <v>4</v>
+      </c>
+      <c r="N34" s="8">
+        <v>2</v>
+      </c>
+      <c r="O34" s="7">
+        <v>0</v>
+      </c>
+      <c r="P34" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="8">
+        <v>0</v>
+      </c>
+      <c r="R34" s="8">
+        <v>0</v>
+      </c>
+      <c r="T34" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U34" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V34" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W34" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X34" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y34" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z34" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA34" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB34" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC34" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" s="8" customFormat="1" spans="1:29">
+      <c r="A35" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" s="8">
+        <v>4</v>
+      </c>
+      <c r="H35" s="8">
+        <v>0</v>
+      </c>
+      <c r="I35" s="8">
+        <v>0</v>
+      </c>
+      <c r="J35" s="8">
+        <v>0</v>
+      </c>
+      <c r="K35" s="8">
+        <v>0</v>
+      </c>
+      <c r="L35" s="8">
+        <v>4</v>
+      </c>
+      <c r="M35" s="8">
+        <v>4</v>
+      </c>
+      <c r="N35" s="8">
+        <v>2</v>
+      </c>
+      <c r="O35" s="7">
+        <v>0</v>
+      </c>
+      <c r="P35" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="8">
+        <v>0</v>
+      </c>
+      <c r="R35" s="8">
+        <v>0</v>
+      </c>
+      <c r="T35" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U35" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V35" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W35" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X35" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y35" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z35" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA35" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB35" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC35" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" s="8" customFormat="1" spans="1:29">
+      <c r="A36" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" s="8">
+        <v>4</v>
+      </c>
+      <c r="H36" s="8">
+        <v>0</v>
+      </c>
+      <c r="I36" s="8">
+        <v>0</v>
+      </c>
+      <c r="J36" s="8">
+        <v>0</v>
+      </c>
+      <c r="K36" s="8">
+        <v>0</v>
+      </c>
+      <c r="L36" s="8">
+        <v>4</v>
+      </c>
+      <c r="M36" s="8">
+        <v>4</v>
+      </c>
+      <c r="N36" s="8">
+        <v>2</v>
+      </c>
+      <c r="O36" s="7">
+        <v>0</v>
+      </c>
+      <c r="P36" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="8">
+        <v>0</v>
+      </c>
+      <c r="R36" s="8">
+        <v>0</v>
+      </c>
+      <c r="T36" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U36" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V36" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W36" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X36" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y36" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z36" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA36" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB36" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC36" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" s="8" customFormat="1" spans="1:29">
+      <c r="A37" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" s="8">
+        <v>4</v>
+      </c>
+      <c r="H37" s="8">
+        <v>0</v>
+      </c>
+      <c r="I37" s="8">
+        <v>0</v>
+      </c>
+      <c r="J37" s="8">
+        <v>0</v>
+      </c>
+      <c r="K37" s="8">
+        <v>0</v>
+      </c>
+      <c r="L37" s="8">
+        <v>4</v>
+      </c>
+      <c r="M37" s="8">
+        <v>4</v>
+      </c>
+      <c r="N37" s="8">
+        <v>2</v>
+      </c>
+      <c r="O37" s="7">
+        <v>0</v>
+      </c>
+      <c r="P37" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="8">
+        <v>0</v>
+      </c>
+      <c r="R37" s="8">
+        <v>0</v>
+      </c>
+      <c r="T37" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U37" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V37" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W37" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X37" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y37" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z37" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA37" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB37" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC37" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" s="8" customFormat="1" spans="1:29">
+      <c r="A38" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" s="8">
+        <v>4</v>
+      </c>
+      <c r="H38" s="8">
+        <v>0</v>
+      </c>
+      <c r="I38" s="8">
+        <v>0</v>
+      </c>
+      <c r="J38" s="8">
+        <v>0</v>
+      </c>
+      <c r="K38" s="8">
+        <v>0</v>
+      </c>
+      <c r="L38" s="8">
+        <v>4</v>
+      </c>
+      <c r="M38" s="8">
+        <v>4</v>
+      </c>
+      <c r="N38" s="8">
+        <v>2</v>
+      </c>
+      <c r="O38" s="7">
+        <v>0</v>
+      </c>
+      <c r="P38" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="8">
+        <v>0</v>
+      </c>
+      <c r="R38" s="8">
+        <v>0</v>
+      </c>
+      <c r="T38" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U38" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V38" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W38" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X38" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y38" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z38" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA38" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB38" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC38" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" s="8" customFormat="1" spans="1:29">
+      <c r="A39" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F39" s="8">
+        <v>4</v>
+      </c>
+      <c r="H39" s="8">
+        <v>0</v>
+      </c>
+      <c r="I39" s="8">
+        <v>0</v>
+      </c>
+      <c r="J39" s="8">
+        <v>0</v>
+      </c>
+      <c r="K39" s="8">
+        <v>0</v>
+      </c>
+      <c r="L39" s="8">
+        <v>4</v>
+      </c>
+      <c r="M39" s="8">
+        <v>4</v>
+      </c>
+      <c r="N39" s="8">
+        <v>2</v>
+      </c>
+      <c r="O39" s="7">
+        <v>0</v>
+      </c>
+      <c r="P39" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="8">
+        <v>0</v>
+      </c>
+      <c r="R39" s="8">
+        <v>0</v>
+      </c>
+      <c r="T39" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U39" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V39" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W39" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X39" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y39" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z39" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA39" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB39" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC39" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" s="8" customFormat="1" spans="1:29">
+      <c r="A40" s="12">
+        <v>900</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40" s="8">
+        <v>4</v>
+      </c>
+      <c r="H40" s="8">
+        <v>0</v>
+      </c>
+      <c r="I40" s="8">
+        <v>1</v>
+      </c>
+      <c r="J40" s="8">
+        <v>1</v>
+      </c>
+      <c r="K40" s="8">
+        <v>0</v>
+      </c>
+      <c r="L40" s="8">
+        <v>4</v>
+      </c>
+      <c r="M40" s="8">
+        <v>8</v>
+      </c>
+      <c r="N40" s="8">
+        <v>0</v>
+      </c>
+      <c r="O40" s="7">
+        <v>0</v>
+      </c>
+      <c r="P40" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="8">
+        <v>0</v>
+      </c>
+      <c r="R40" s="8">
+        <v>0</v>
+      </c>
+      <c r="T40" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="U40" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="V40" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="W40" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="X40" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y40" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z40" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA40" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB40" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC40" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" s="8" customFormat="1" spans="1:29">
+      <c r="A41" s="12">
+        <v>901</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="F41" s="8">
+        <v>4</v>
+      </c>
+      <c r="H41" s="8">
+        <v>0</v>
+      </c>
+      <c r="I41" s="8">
+        <v>0</v>
+      </c>
+      <c r="J41" s="8">
+        <v>0</v>
+      </c>
+      <c r="K41" s="8">
+        <v>0</v>
+      </c>
+      <c r="L41" s="8">
+        <v>0</v>
+      </c>
+      <c r="M41" s="8">
+        <v>1</v>
+      </c>
+      <c r="N41" s="8">
+        <v>1</v>
+      </c>
+      <c r="O41" s="7">
+        <v>0</v>
+      </c>
+      <c r="P41" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="8">
+        <v>0</v>
+      </c>
+      <c r="R41" s="8">
+        <v>0</v>
+      </c>
+      <c r="T41" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="U41" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="V41" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="W41" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="X41" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y41" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z41" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA41" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB41" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC41" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" s="8" customFormat="1" spans="1:29">
+      <c r="A42" s="12">
+        <v>503001</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="F42" s="8">
+        <v>11</v>
+      </c>
+      <c r="H42" s="8">
+        <v>0</v>
+      </c>
+      <c r="I42" s="8">
+        <v>0</v>
+      </c>
+      <c r="J42" s="8">
+        <v>0</v>
+      </c>
+      <c r="K42" s="8">
+        <v>0</v>
+      </c>
+      <c r="L42" s="8">
+        <v>4</v>
+      </c>
+      <c r="M42" s="8">
+        <v>4</v>
+      </c>
+      <c r="N42" s="8">
+        <v>2</v>
+      </c>
+      <c r="O42" s="7">
+        <v>0</v>
+      </c>
+      <c r="P42" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="8">
+        <v>0</v>
+      </c>
+      <c r="R42" s="8">
+        <v>0</v>
+      </c>
+      <c r="T42" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U42" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="V42" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="W42" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="X42" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y42" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z42" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA42" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB42" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC42" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" s="9" customFormat="1" spans="1:29">
+      <c r="A43" s="13">
+        <v>1000003</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" s="15">
+        <v>3</v>
+      </c>
+      <c r="G43" s="16"/>
+      <c r="H43" s="9">
+        <v>0</v>
+      </c>
+      <c r="I43" s="9">
+        <v>1</v>
+      </c>
+      <c r="J43" s="9">
+        <v>0</v>
+      </c>
+      <c r="K43" s="9">
+        <v>-1</v>
+      </c>
+      <c r="L43" s="9">
+        <v>0</v>
+      </c>
+      <c r="M43" s="9">
+        <v>0</v>
+      </c>
+      <c r="N43" s="9">
+        <v>0</v>
+      </c>
+      <c r="O43" s="9">
+        <v>0</v>
+      </c>
+      <c r="P43" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="9">
+        <v>0</v>
+      </c>
+      <c r="R43" s="9">
+        <v>0</v>
+      </c>
+      <c r="T43" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="U43" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="V43" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="W43" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="X43" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y43" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z43" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA43" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB43" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC43" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" s="8" customFormat="1" spans="1:29">
+      <c r="A44" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F44" s="8">
+        <v>4</v>
+      </c>
+      <c r="H44" s="8">
+        <v>0</v>
+      </c>
+      <c r="I44" s="8">
+        <v>0</v>
+      </c>
+      <c r="J44" s="8">
+        <v>0</v>
+      </c>
+      <c r="K44" s="8">
+        <v>0</v>
+      </c>
+      <c r="L44" s="8">
+        <v>4</v>
+      </c>
+      <c r="M44" s="8">
+        <v>4</v>
+      </c>
+      <c r="N44" s="8">
+        <v>2</v>
+      </c>
+      <c r="O44" s="7">
+        <v>0</v>
+      </c>
+      <c r="P44" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="8">
+        <v>0</v>
+      </c>
+      <c r="R44" s="8">
+        <v>0</v>
+      </c>
+      <c r="T44" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U44" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V44" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W44" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X44" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y44" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z44" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA44" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB44" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC44" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" s="8" customFormat="1" spans="1:29">
+      <c r="A45" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" s="8">
+        <v>4</v>
+      </c>
+      <c r="H45" s="8">
+        <v>0</v>
+      </c>
+      <c r="I45" s="8">
+        <v>0</v>
+      </c>
+      <c r="J45" s="8">
+        <v>0</v>
+      </c>
+      <c r="K45" s="8">
+        <v>0</v>
+      </c>
+      <c r="L45" s="8">
+        <v>4</v>
+      </c>
+      <c r="M45" s="8">
+        <v>4</v>
+      </c>
+      <c r="N45" s="8">
+        <v>2</v>
+      </c>
+      <c r="O45" s="7">
+        <v>0</v>
+      </c>
+      <c r="P45" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="8">
+        <v>0</v>
+      </c>
+      <c r="R45" s="8">
+        <v>0</v>
+      </c>
+      <c r="T45" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U45" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V45" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W45" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X45" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y45" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z45" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA45" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB45" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC45" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" s="8" customFormat="1" spans="1:29">
+      <c r="A46" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F46" s="8">
+        <v>4</v>
+      </c>
+      <c r="H46" s="8">
+        <v>0</v>
+      </c>
+      <c r="I46" s="8">
+        <v>0</v>
+      </c>
+      <c r="J46" s="8">
+        <v>0</v>
+      </c>
+      <c r="K46" s="8">
+        <v>0</v>
+      </c>
+      <c r="L46" s="8">
+        <v>4</v>
+      </c>
+      <c r="M46" s="8">
+        <v>4</v>
+      </c>
+      <c r="N46" s="8">
+        <v>2</v>
+      </c>
+      <c r="O46" s="7">
+        <v>0</v>
+      </c>
+      <c r="P46" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="8">
+        <v>0</v>
+      </c>
+      <c r="R46" s="8">
+        <v>0</v>
+      </c>
+      <c r="T46" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U46" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V46" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W46" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X46" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y46" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z46" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA46" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB46" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC46" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" s="8" customFormat="1" spans="1:29">
+      <c r="A47" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47" s="8">
+        <v>4</v>
+      </c>
+      <c r="H47" s="8">
+        <v>0</v>
+      </c>
+      <c r="I47" s="8">
+        <v>0</v>
+      </c>
+      <c r="J47" s="8">
+        <v>0</v>
+      </c>
+      <c r="K47" s="8">
+        <v>0</v>
+      </c>
+      <c r="L47" s="8">
+        <v>4</v>
+      </c>
+      <c r="M47" s="8">
+        <v>4</v>
+      </c>
+      <c r="N47" s="8">
+        <v>2</v>
+      </c>
+      <c r="O47" s="7">
+        <v>0</v>
+      </c>
+      <c r="P47" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="8">
+        <v>0</v>
+      </c>
+      <c r="R47" s="8">
+        <v>0</v>
+      </c>
+      <c r="T47" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U47" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V47" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W47" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X47" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y47" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z47" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA47" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB47" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC47" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" s="8" customFormat="1" spans="1:29">
+      <c r="A48" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F48" s="8">
+        <v>4</v>
+      </c>
+      <c r="H48" s="8">
+        <v>0</v>
+      </c>
+      <c r="I48" s="8">
+        <v>0</v>
+      </c>
+      <c r="J48" s="8">
+        <v>0</v>
+      </c>
+      <c r="K48" s="8">
+        <v>0</v>
+      </c>
+      <c r="L48" s="8">
+        <v>4</v>
+      </c>
+      <c r="M48" s="8">
+        <v>4</v>
+      </c>
+      <c r="N48" s="8">
+        <v>2</v>
+      </c>
+      <c r="O48" s="7">
+        <v>0</v>
+      </c>
+      <c r="P48" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="8">
+        <v>0</v>
+      </c>
+      <c r="R48" s="8">
+        <v>0</v>
+      </c>
+      <c r="T48" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U48" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V48" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W48" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X48" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y48" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z48" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA48" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB48" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC48" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" s="8" customFormat="1" spans="1:29">
+      <c r="A49" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49" s="8">
+        <v>4</v>
+      </c>
+      <c r="H49" s="8">
+        <v>0</v>
+      </c>
+      <c r="I49" s="8">
+        <v>0</v>
+      </c>
+      <c r="J49" s="8">
+        <v>0</v>
+      </c>
+      <c r="K49" s="8">
+        <v>0</v>
+      </c>
+      <c r="L49" s="8">
+        <v>4</v>
+      </c>
+      <c r="M49" s="8">
+        <v>4</v>
+      </c>
+      <c r="N49" s="8">
+        <v>2</v>
+      </c>
+      <c r="O49" s="7">
+        <v>0</v>
+      </c>
+      <c r="P49" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="8">
+        <v>0</v>
+      </c>
+      <c r="R49" s="8">
+        <v>0</v>
+      </c>
+      <c r="T49" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U49" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V49" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W49" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X49" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y49" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z49" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA49" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB49" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC49" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" s="8" customFormat="1" spans="1:29">
+      <c r="A50" s="12">
+        <v>900</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F50" s="8">
+        <v>4</v>
+      </c>
+      <c r="H50" s="8">
+        <v>0</v>
+      </c>
+      <c r="I50" s="8">
+        <v>1</v>
+      </c>
+      <c r="J50" s="8">
+        <v>1</v>
+      </c>
+      <c r="K50" s="8">
+        <v>0</v>
+      </c>
+      <c r="L50" s="8">
+        <v>4</v>
+      </c>
+      <c r="M50" s="8">
+        <v>8</v>
+      </c>
+      <c r="N50" s="8">
+        <v>0</v>
+      </c>
+      <c r="O50" s="7">
+        <v>0</v>
+      </c>
+      <c r="P50" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="8">
+        <v>0</v>
+      </c>
+      <c r="R50" s="8">
+        <v>0</v>
+      </c>
+      <c r="T50" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="U50" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="V50" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="W50" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="X50" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y50" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z50" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA50" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB50" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC50" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" s="8" customFormat="1" spans="1:29">
+      <c r="A51" s="12">
+        <v>901</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="F51" s="8">
+        <v>4</v>
+      </c>
+      <c r="H51" s="8">
+        <v>0</v>
+      </c>
+      <c r="I51" s="8">
+        <v>0</v>
+      </c>
+      <c r="J51" s="8">
+        <v>0</v>
+      </c>
+      <c r="K51" s="8">
+        <v>0</v>
+      </c>
+      <c r="L51" s="8">
+        <v>0</v>
+      </c>
+      <c r="M51" s="8">
+        <v>1</v>
+      </c>
+      <c r="N51" s="8">
+        <v>1</v>
+      </c>
+      <c r="O51" s="7">
+        <v>0</v>
+      </c>
+      <c r="P51" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="8">
+        <v>0</v>
+      </c>
+      <c r="R51" s="8">
+        <v>0</v>
+      </c>
+      <c r="T51" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="U51" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="V51" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="W51" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="X51" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y51" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z51" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA51" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB51" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC51" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" s="8" customFormat="1" spans="1:29">
+      <c r="A52" s="12">
+        <v>503001</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="F52" s="8">
+        <v>11</v>
+      </c>
+      <c r="H52" s="8">
+        <v>0</v>
+      </c>
+      <c r="I52" s="8">
+        <v>0</v>
+      </c>
+      <c r="J52" s="8">
+        <v>0</v>
+      </c>
+      <c r="K52" s="8">
+        <v>0</v>
+      </c>
+      <c r="L52" s="8">
+        <v>4</v>
+      </c>
+      <c r="M52" s="8">
+        <v>4</v>
+      </c>
+      <c r="N52" s="8">
+        <v>2</v>
+      </c>
+      <c r="O52" s="7">
+        <v>0</v>
+      </c>
+      <c r="P52" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="8">
+        <v>0</v>
+      </c>
+      <c r="R52" s="8">
+        <v>0</v>
+      </c>
+      <c r="T52" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U52" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="V52" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="W52" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="X52" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y52" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z52" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA52" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB52" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC52" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" s="9" customFormat="1" spans="1:29">
+      <c r="A53" s="13">
+        <v>1000003</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F53" s="15">
+        <v>3</v>
+      </c>
+      <c r="G53" s="16"/>
+      <c r="H53" s="9">
+        <v>0</v>
+      </c>
+      <c r="I53" s="9">
+        <v>1</v>
+      </c>
+      <c r="J53" s="9">
+        <v>0</v>
+      </c>
+      <c r="K53" s="9">
+        <v>-1</v>
+      </c>
+      <c r="L53" s="9">
+        <v>0</v>
+      </c>
+      <c r="M53" s="9">
+        <v>0</v>
+      </c>
+      <c r="N53" s="9">
+        <v>0</v>
+      </c>
+      <c r="O53" s="9">
+        <v>0</v>
+      </c>
+      <c r="P53" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="9">
+        <v>0</v>
+      </c>
+      <c r="R53" s="9">
+        <v>0</v>
+      </c>
+      <c r="T53" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="U53" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="V53" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="W53" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="X53" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y53" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z53" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA53" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB53" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC53" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" s="8" customFormat="1" spans="1:29">
+      <c r="A54" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F54" s="8">
+        <v>4</v>
+      </c>
+      <c r="H54" s="8">
+        <v>0</v>
+      </c>
+      <c r="I54" s="8">
+        <v>0</v>
+      </c>
+      <c r="J54" s="8">
+        <v>0</v>
+      </c>
+      <c r="K54" s="8">
+        <v>0</v>
+      </c>
+      <c r="L54" s="8">
+        <v>4</v>
+      </c>
+      <c r="M54" s="8">
+        <v>4</v>
+      </c>
+      <c r="N54" s="8">
+        <v>2</v>
+      </c>
+      <c r="O54" s="7">
+        <v>0</v>
+      </c>
+      <c r="P54" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="8">
+        <v>0</v>
+      </c>
+      <c r="R54" s="8">
+        <v>0</v>
+      </c>
+      <c r="T54" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U54" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V54" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W54" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X54" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y54" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z54" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA54" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB54" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC54" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" s="8" customFormat="1" spans="1:29">
+      <c r="A55" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F55" s="8">
+        <v>4</v>
+      </c>
+      <c r="H55" s="8">
+        <v>0</v>
+      </c>
+      <c r="I55" s="8">
+        <v>0</v>
+      </c>
+      <c r="J55" s="8">
+        <v>0</v>
+      </c>
+      <c r="K55" s="8">
+        <v>0</v>
+      </c>
+      <c r="L55" s="8">
+        <v>4</v>
+      </c>
+      <c r="M55" s="8">
+        <v>4</v>
+      </c>
+      <c r="N55" s="8">
+        <v>2</v>
+      </c>
+      <c r="O55" s="7">
+        <v>0</v>
+      </c>
+      <c r="P55" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="8">
+        <v>0</v>
+      </c>
+      <c r="R55" s="8">
+        <v>0</v>
+      </c>
+      <c r="T55" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U55" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V55" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W55" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X55" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y55" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z55" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA55" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB55" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC55" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" s="8" customFormat="1" spans="1:29">
+      <c r="A56" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F56" s="8">
+        <v>4</v>
+      </c>
+      <c r="H56" s="8">
+        <v>0</v>
+      </c>
+      <c r="I56" s="8">
+        <v>0</v>
+      </c>
+      <c r="J56" s="8">
+        <v>0</v>
+      </c>
+      <c r="K56" s="8">
+        <v>0</v>
+      </c>
+      <c r="L56" s="8">
+        <v>4</v>
+      </c>
+      <c r="M56" s="8">
+        <v>4</v>
+      </c>
+      <c r="N56" s="8">
+        <v>2</v>
+      </c>
+      <c r="O56" s="7">
+        <v>0</v>
+      </c>
+      <c r="P56" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="8">
+        <v>0</v>
+      </c>
+      <c r="R56" s="8">
+        <v>0</v>
+      </c>
+      <c r="T56" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U56" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V56" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W56" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X56" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y56" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z56" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA56" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB56" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC56" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" s="8" customFormat="1" spans="1:29">
+      <c r="A57" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F57" s="8">
+        <v>4</v>
+      </c>
+      <c r="H57" s="8">
+        <v>0</v>
+      </c>
+      <c r="I57" s="8">
+        <v>0</v>
+      </c>
+      <c r="J57" s="8">
+        <v>0</v>
+      </c>
+      <c r="K57" s="8">
+        <v>0</v>
+      </c>
+      <c r="L57" s="8">
+        <v>4</v>
+      </c>
+      <c r="M57" s="8">
+        <v>4</v>
+      </c>
+      <c r="N57" s="8">
+        <v>2</v>
+      </c>
+      <c r="O57" s="7">
+        <v>0</v>
+      </c>
+      <c r="P57" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="8">
+        <v>0</v>
+      </c>
+      <c r="R57" s="8">
+        <v>0</v>
+      </c>
+      <c r="T57" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U57" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V57" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W57" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X57" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y57" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z57" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA57" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB57" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC57" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" s="8" customFormat="1" spans="1:29">
+      <c r="A58" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F58" s="8">
+        <v>4</v>
+      </c>
+      <c r="H58" s="8">
+        <v>0</v>
+      </c>
+      <c r="I58" s="8">
+        <v>0</v>
+      </c>
+      <c r="J58" s="8">
+        <v>0</v>
+      </c>
+      <c r="K58" s="8">
+        <v>0</v>
+      </c>
+      <c r="L58" s="8">
+        <v>4</v>
+      </c>
+      <c r="M58" s="8">
+        <v>4</v>
+      </c>
+      <c r="N58" s="8">
+        <v>2</v>
+      </c>
+      <c r="O58" s="7">
+        <v>0</v>
+      </c>
+      <c r="P58" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="8">
+        <v>0</v>
+      </c>
+      <c r="R58" s="8">
+        <v>0</v>
+      </c>
+      <c r="T58" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U58" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V58" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W58" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X58" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y58" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z58" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA58" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB58" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC58" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" s="8" customFormat="1" spans="1:29">
+      <c r="A59" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F59" s="8">
+        <v>4</v>
+      </c>
+      <c r="H59" s="8">
+        <v>0</v>
+      </c>
+      <c r="I59" s="8">
+        <v>0</v>
+      </c>
+      <c r="J59" s="8">
+        <v>0</v>
+      </c>
+      <c r="K59" s="8">
+        <v>0</v>
+      </c>
+      <c r="L59" s="8">
+        <v>4</v>
+      </c>
+      <c r="M59" s="8">
+        <v>4</v>
+      </c>
+      <c r="N59" s="8">
+        <v>2</v>
+      </c>
+      <c r="O59" s="7">
+        <v>0</v>
+      </c>
+      <c r="P59" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="8">
+        <v>0</v>
+      </c>
+      <c r="R59" s="8">
+        <v>0</v>
+      </c>
+      <c r="T59" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U59" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V59" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W59" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X59" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y59" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z59" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA59" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB59" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC59" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" s="8" customFormat="1" spans="1:29">
+      <c r="A60" s="12">
+        <v>900</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F60" s="8">
+        <v>4</v>
+      </c>
+      <c r="H60" s="8">
+        <v>0</v>
+      </c>
+      <c r="I60" s="8">
+        <v>1</v>
+      </c>
+      <c r="J60" s="8">
+        <v>1</v>
+      </c>
+      <c r="K60" s="8">
+        <v>0</v>
+      </c>
+      <c r="L60" s="8">
+        <v>4</v>
+      </c>
+      <c r="M60" s="8">
+        <v>8</v>
+      </c>
+      <c r="N60" s="8">
+        <v>0</v>
+      </c>
+      <c r="O60" s="7">
+        <v>0</v>
+      </c>
+      <c r="P60" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="8">
+        <v>0</v>
+      </c>
+      <c r="R60" s="8">
+        <v>0</v>
+      </c>
+      <c r="T60" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="U60" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="V60" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="W60" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="X60" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y60" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z60" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA60" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB60" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC60" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" s="8" customFormat="1" spans="1:29">
+      <c r="A61" s="12">
+        <v>901</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="F61" s="8">
+        <v>4</v>
+      </c>
+      <c r="H61" s="8">
+        <v>0</v>
+      </c>
+      <c r="I61" s="8">
+        <v>0</v>
+      </c>
+      <c r="J61" s="8">
+        <v>0</v>
+      </c>
+      <c r="K61" s="8">
+        <v>0</v>
+      </c>
+      <c r="L61" s="8">
+        <v>0</v>
+      </c>
+      <c r="M61" s="8">
+        <v>1</v>
+      </c>
+      <c r="N61" s="8">
+        <v>1</v>
+      </c>
+      <c r="O61" s="7">
+        <v>0</v>
+      </c>
+      <c r="P61" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="8">
+        <v>0</v>
+      </c>
+      <c r="R61" s="8">
+        <v>0</v>
+      </c>
+      <c r="T61" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="U61" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="V61" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="W61" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="X61" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y61" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z61" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA61" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB61" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC61" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" s="8" customFormat="1" spans="1:29">
+      <c r="A62" s="12">
+        <v>503001</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="F62" s="8">
+        <v>11</v>
+      </c>
+      <c r="H62" s="8">
+        <v>0</v>
+      </c>
+      <c r="I62" s="8">
+        <v>0</v>
+      </c>
+      <c r="J62" s="8">
+        <v>0</v>
+      </c>
+      <c r="K62" s="8">
+        <v>0</v>
+      </c>
+      <c r="L62" s="8">
+        <v>4</v>
+      </c>
+      <c r="M62" s="8">
+        <v>4</v>
+      </c>
+      <c r="N62" s="8">
+        <v>2</v>
+      </c>
+      <c r="O62" s="7">
+        <v>0</v>
+      </c>
+      <c r="P62" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="8">
+        <v>0</v>
+      </c>
+      <c r="R62" s="8">
+        <v>0</v>
+      </c>
+      <c r="T62" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U62" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="V62" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="W62" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="X62" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y62" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z62" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA62" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB62" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC62" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" s="9" customFormat="1" spans="1:29">
+      <c r="A63" s="13">
+        <v>1000003</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F63" s="15">
+        <v>3</v>
+      </c>
+      <c r="G63" s="16"/>
+      <c r="H63" s="9">
+        <v>0</v>
+      </c>
+      <c r="I63" s="9">
+        <v>1</v>
+      </c>
+      <c r="J63" s="9">
+        <v>0</v>
+      </c>
+      <c r="K63" s="9">
+        <v>-1</v>
+      </c>
+      <c r="L63" s="9">
+        <v>0</v>
+      </c>
+      <c r="M63" s="9">
+        <v>0</v>
+      </c>
+      <c r="N63" s="9">
+        <v>0</v>
+      </c>
+      <c r="O63" s="9">
+        <v>0</v>
+      </c>
+      <c r="P63" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="9">
+        <v>0</v>
+      </c>
+      <c r="R63" s="9">
+        <v>0</v>
+      </c>
+      <c r="T63" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="U63" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="V63" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="W63" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="X63" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y63" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z63" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA63" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB63" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC63" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" s="8" customFormat="1" spans="1:29">
+      <c r="A64" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F64" s="8">
+        <v>4</v>
+      </c>
+      <c r="H64" s="8">
+        <v>0</v>
+      </c>
+      <c r="I64" s="8">
+        <v>0</v>
+      </c>
+      <c r="J64" s="8">
+        <v>0</v>
+      </c>
+      <c r="K64" s="8">
+        <v>0</v>
+      </c>
+      <c r="L64" s="8">
+        <v>4</v>
+      </c>
+      <c r="M64" s="8">
+        <v>4</v>
+      </c>
+      <c r="N64" s="8">
+        <v>2</v>
+      </c>
+      <c r="O64" s="7">
+        <v>0</v>
+      </c>
+      <c r="P64" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="8">
+        <v>0</v>
+      </c>
+      <c r="R64" s="8">
+        <v>0</v>
+      </c>
+      <c r="T64" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U64" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V64" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W64" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X64" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y64" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z64" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA64" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB64" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC64" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" s="8" customFormat="1" spans="1:29">
+      <c r="A65" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F65" s="8">
+        <v>4</v>
+      </c>
+      <c r="H65" s="8">
+        <v>0</v>
+      </c>
+      <c r="I65" s="8">
+        <v>0</v>
+      </c>
+      <c r="J65" s="8">
+        <v>0</v>
+      </c>
+      <c r="K65" s="8">
+        <v>0</v>
+      </c>
+      <c r="L65" s="8">
+        <v>4</v>
+      </c>
+      <c r="M65" s="8">
+        <v>4</v>
+      </c>
+      <c r="N65" s="8">
+        <v>2</v>
+      </c>
+      <c r="O65" s="7">
+        <v>0</v>
+      </c>
+      <c r="P65" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="8">
+        <v>0</v>
+      </c>
+      <c r="R65" s="8">
+        <v>0</v>
+      </c>
+      <c r="T65" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U65" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V65" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W65" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X65" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y65" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z65" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA65" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB65" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC65" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" s="8" customFormat="1" spans="1:29">
+      <c r="A66" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F66" s="8">
+        <v>4</v>
+      </c>
+      <c r="H66" s="8">
+        <v>0</v>
+      </c>
+      <c r="I66" s="8">
+        <v>0</v>
+      </c>
+      <c r="J66" s="8">
+        <v>0</v>
+      </c>
+      <c r="K66" s="8">
+        <v>0</v>
+      </c>
+      <c r="L66" s="8">
+        <v>4</v>
+      </c>
+      <c r="M66" s="8">
+        <v>4</v>
+      </c>
+      <c r="N66" s="8">
+        <v>2</v>
+      </c>
+      <c r="O66" s="7">
+        <v>0</v>
+      </c>
+      <c r="P66" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="8">
+        <v>0</v>
+      </c>
+      <c r="R66" s="8">
+        <v>0</v>
+      </c>
+      <c r="T66" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U66" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V66" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W66" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X66" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y66" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z66" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA66" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB66" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC66" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" s="9" customFormat="1" spans="1:29">
+      <c r="A67" s="13">
+        <v>1000003</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F67" s="15">
+        <v>3</v>
+      </c>
+      <c r="G67" s="16"/>
+      <c r="H67" s="9">
+        <v>0</v>
+      </c>
+      <c r="I67" s="9">
+        <v>1</v>
+      </c>
+      <c r="J67" s="9">
+        <v>0</v>
+      </c>
+      <c r="K67" s="9">
+        <v>-1</v>
+      </c>
+      <c r="L67" s="9">
+        <v>0</v>
+      </c>
+      <c r="M67" s="9">
+        <v>0</v>
+      </c>
+      <c r="N67" s="9">
+        <v>0</v>
+      </c>
+      <c r="O67" s="9">
+        <v>0</v>
+      </c>
+      <c r="P67" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="9">
+        <v>0</v>
+      </c>
+      <c r="R67" s="9">
+        <v>0</v>
+      </c>
+      <c r="T67" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="U67" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="V67" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="W67" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="X67" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y67" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z67" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA67" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB67" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC67" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" s="8" customFormat="1" spans="1:29">
+      <c r="A68" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F68" s="8">
+        <v>4</v>
+      </c>
+      <c r="H68" s="8">
+        <v>0</v>
+      </c>
+      <c r="I68" s="8">
+        <v>0</v>
+      </c>
+      <c r="J68" s="8">
+        <v>0</v>
+      </c>
+      <c r="K68" s="8">
+        <v>0</v>
+      </c>
+      <c r="L68" s="8">
+        <v>4</v>
+      </c>
+      <c r="M68" s="8">
+        <v>4</v>
+      </c>
+      <c r="N68" s="8">
+        <v>2</v>
+      </c>
+      <c r="O68" s="7">
+        <v>0</v>
+      </c>
+      <c r="P68" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="8">
+        <v>0</v>
+      </c>
+      <c r="R68" s="8">
+        <v>0</v>
+      </c>
+      <c r="T68" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U68" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V68" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W68" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X68" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y68" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z68" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA68" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB68" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC68" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" s="8" customFormat="1" spans="1:29">
+      <c r="A69" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F69" s="8">
+        <v>4</v>
+      </c>
+      <c r="H69" s="8">
+        <v>0</v>
+      </c>
+      <c r="I69" s="8">
+        <v>0</v>
+      </c>
+      <c r="J69" s="8">
+        <v>0</v>
+      </c>
+      <c r="K69" s="8">
+        <v>0</v>
+      </c>
+      <c r="L69" s="8">
+        <v>4</v>
+      </c>
+      <c r="M69" s="8">
+        <v>4</v>
+      </c>
+      <c r="N69" s="8">
+        <v>2</v>
+      </c>
+      <c r="O69" s="7">
+        <v>0</v>
+      </c>
+      <c r="P69" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="8">
+        <v>0</v>
+      </c>
+      <c r="R69" s="8">
+        <v>0</v>
+      </c>
+      <c r="T69" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U69" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V69" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W69" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X69" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y69" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z69" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA69" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB69" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC69" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" s="8" customFormat="1" spans="1:29">
+      <c r="A70" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F70" s="8">
+        <v>4</v>
+      </c>
+      <c r="H70" s="8">
+        <v>0</v>
+      </c>
+      <c r="I70" s="8">
+        <v>0</v>
+      </c>
+      <c r="J70" s="8">
+        <v>0</v>
+      </c>
+      <c r="K70" s="8">
+        <v>0</v>
+      </c>
+      <c r="L70" s="8">
+        <v>4</v>
+      </c>
+      <c r="M70" s="8">
+        <v>4</v>
+      </c>
+      <c r="N70" s="8">
+        <v>2</v>
+      </c>
+      <c r="O70" s="7">
+        <v>0</v>
+      </c>
+      <c r="P70" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="8">
+        <v>0</v>
+      </c>
+      <c r="R70" s="8">
+        <v>0</v>
+      </c>
+      <c r="T70" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U70" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V70" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W70" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X70" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y70" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z70" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA70" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB70" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC70" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" s="8" customFormat="1" spans="1:29">
+      <c r="A71" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F71" s="8">
+        <v>4</v>
+      </c>
+      <c r="H71" s="8">
+        <v>0</v>
+      </c>
+      <c r="I71" s="8">
+        <v>0</v>
+      </c>
+      <c r="J71" s="8">
+        <v>0</v>
+      </c>
+      <c r="K71" s="8">
+        <v>0</v>
+      </c>
+      <c r="L71" s="8">
+        <v>4</v>
+      </c>
+      <c r="M71" s="8">
+        <v>4</v>
+      </c>
+      <c r="N71" s="8">
+        <v>2</v>
+      </c>
+      <c r="O71" s="7">
+        <v>0</v>
+      </c>
+      <c r="P71" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="8">
+        <v>0</v>
+      </c>
+      <c r="R71" s="8">
+        <v>0</v>
+      </c>
+      <c r="T71" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U71" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V71" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W71" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X71" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y71" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z71" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA71" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB71" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC71" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" s="8" customFormat="1" spans="1:29">
+      <c r="A72" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F72" s="8">
+        <v>4</v>
+      </c>
+      <c r="H72" s="8">
+        <v>0</v>
+      </c>
+      <c r="I72" s="8">
+        <v>0</v>
+      </c>
+      <c r="J72" s="8">
+        <v>0</v>
+      </c>
+      <c r="K72" s="8">
+        <v>0</v>
+      </c>
+      <c r="L72" s="8">
+        <v>4</v>
+      </c>
+      <c r="M72" s="8">
+        <v>4</v>
+      </c>
+      <c r="N72" s="8">
+        <v>2</v>
+      </c>
+      <c r="O72" s="7">
+        <v>0</v>
+      </c>
+      <c r="P72" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="8">
+        <v>0</v>
+      </c>
+      <c r="R72" s="8">
+        <v>0</v>
+      </c>
+      <c r="T72" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U72" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V72" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W72" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X72" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y72" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z72" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA72" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB72" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC72" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" s="8" customFormat="1" spans="1:29">
+      <c r="A73" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F73" s="8">
+        <v>4</v>
+      </c>
+      <c r="H73" s="8">
+        <v>0</v>
+      </c>
+      <c r="I73" s="8">
+        <v>0</v>
+      </c>
+      <c r="J73" s="8">
+        <v>0</v>
+      </c>
+      <c r="K73" s="8">
+        <v>0</v>
+      </c>
+      <c r="L73" s="8">
+        <v>4</v>
+      </c>
+      <c r="M73" s="8">
+        <v>4</v>
+      </c>
+      <c r="N73" s="8">
+        <v>2</v>
+      </c>
+      <c r="O73" s="7">
+        <v>0</v>
+      </c>
+      <c r="P73" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="8">
+        <v>0</v>
+      </c>
+      <c r="R73" s="8">
+        <v>0</v>
+      </c>
+      <c r="T73" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U73" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V73" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W73" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X73" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y73" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z73" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA73" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB73" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC73" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" s="8" customFormat="1" spans="1:29">
+      <c r="A74" s="12">
+        <v>900</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F74" s="8">
+        <v>4</v>
+      </c>
+      <c r="H74" s="8">
+        <v>0</v>
+      </c>
+      <c r="I74" s="8">
+        <v>1</v>
+      </c>
+      <c r="J74" s="8">
+        <v>1</v>
+      </c>
+      <c r="K74" s="8">
+        <v>0</v>
+      </c>
+      <c r="L74" s="8">
+        <v>4</v>
+      </c>
+      <c r="M74" s="8">
+        <v>8</v>
+      </c>
+      <c r="N74" s="8">
+        <v>0</v>
+      </c>
+      <c r="O74" s="7">
+        <v>0</v>
+      </c>
+      <c r="P74" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="8">
+        <v>0</v>
+      </c>
+      <c r="R74" s="8">
+        <v>0</v>
+      </c>
+      <c r="T74" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="U74" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="V74" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="W74" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="X74" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y74" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z74" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA74" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB74" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC74" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" s="8" customFormat="1" spans="1:29">
+      <c r="A75" s="12">
+        <v>901</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="F75" s="8">
+        <v>4</v>
+      </c>
+      <c r="H75" s="8">
+        <v>0</v>
+      </c>
+      <c r="I75" s="8">
+        <v>0</v>
+      </c>
+      <c r="J75" s="8">
+        <v>0</v>
+      </c>
+      <c r="K75" s="8">
+        <v>0</v>
+      </c>
+      <c r="L75" s="8">
+        <v>0</v>
+      </c>
+      <c r="M75" s="8">
+        <v>1</v>
+      </c>
+      <c r="N75" s="8">
+        <v>1</v>
+      </c>
+      <c r="O75" s="7">
+        <v>0</v>
+      </c>
+      <c r="P75" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="8">
+        <v>0</v>
+      </c>
+      <c r="R75" s="8">
+        <v>0</v>
+      </c>
+      <c r="T75" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="U75" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="V75" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="W75" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="X75" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y75" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z75" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA75" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB75" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC75" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" s="8" customFormat="1" spans="1:29">
+      <c r="A76" s="12">
+        <v>503001</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="F76" s="8">
+        <v>11</v>
+      </c>
+      <c r="H76" s="8">
+        <v>0</v>
+      </c>
+      <c r="I76" s="8">
+        <v>0</v>
+      </c>
+      <c r="J76" s="8">
+        <v>0</v>
+      </c>
+      <c r="K76" s="8">
+        <v>0</v>
+      </c>
+      <c r="L76" s="8">
+        <v>4</v>
+      </c>
+      <c r="M76" s="8">
+        <v>4</v>
+      </c>
+      <c r="N76" s="8">
+        <v>2</v>
+      </c>
+      <c r="O76" s="7">
+        <v>0</v>
+      </c>
+      <c r="P76" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="8">
+        <v>0</v>
+      </c>
+      <c r="R76" s="8">
+        <v>0</v>
+      </c>
+      <c r="T76" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U76" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="V76" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="W76" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="X76" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y76" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z76" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA76" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB76" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC76" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" s="9" customFormat="1" spans="1:29">
+      <c r="A77" s="13">
+        <v>1000003</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F77" s="15">
+        <v>3</v>
+      </c>
+      <c r="G77" s="16"/>
+      <c r="H77" s="9">
+        <v>0</v>
+      </c>
+      <c r="I77" s="9">
+        <v>1</v>
+      </c>
+      <c r="J77" s="9">
+        <v>0</v>
+      </c>
+      <c r="K77" s="9">
+        <v>-1</v>
+      </c>
+      <c r="L77" s="9">
+        <v>0</v>
+      </c>
+      <c r="M77" s="9">
+        <v>0</v>
+      </c>
+      <c r="N77" s="9">
+        <v>0</v>
+      </c>
+      <c r="O77" s="9">
+        <v>0</v>
+      </c>
+      <c r="P77" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="9">
+        <v>0</v>
+      </c>
+      <c r="R77" s="9">
+        <v>0</v>
+      </c>
+      <c r="T77" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="U77" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="V77" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="W77" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="X77" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y77" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z77" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA77" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB77" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC77" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" s="8" customFormat="1" spans="1:29">
+      <c r="A78" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F78" s="8">
+        <v>4</v>
+      </c>
+      <c r="H78" s="8">
+        <v>0</v>
+      </c>
+      <c r="I78" s="8">
+        <v>0</v>
+      </c>
+      <c r="J78" s="8">
+        <v>0</v>
+      </c>
+      <c r="K78" s="8">
+        <v>0</v>
+      </c>
+      <c r="L78" s="8">
+        <v>4</v>
+      </c>
+      <c r="M78" s="8">
+        <v>4</v>
+      </c>
+      <c r="N78" s="8">
+        <v>2</v>
+      </c>
+      <c r="O78" s="7">
+        <v>0</v>
+      </c>
+      <c r="P78" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="8">
+        <v>0</v>
+      </c>
+      <c r="R78" s="8">
+        <v>0</v>
+      </c>
+      <c r="T78" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U78" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V78" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W78" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X78" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y78" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z78" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA78" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB78" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC78" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" s="8" customFormat="1" spans="1:29">
+      <c r="A79" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F79" s="8">
+        <v>4</v>
+      </c>
+      <c r="H79" s="8">
+        <v>0</v>
+      </c>
+      <c r="I79" s="8">
+        <v>0</v>
+      </c>
+      <c r="J79" s="8">
+        <v>0</v>
+      </c>
+      <c r="K79" s="8">
+        <v>0</v>
+      </c>
+      <c r="L79" s="8">
+        <v>4</v>
+      </c>
+      <c r="M79" s="8">
+        <v>4</v>
+      </c>
+      <c r="N79" s="8">
+        <v>2</v>
+      </c>
+      <c r="O79" s="7">
+        <v>0</v>
+      </c>
+      <c r="P79" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="8">
+        <v>0</v>
+      </c>
+      <c r="R79" s="8">
+        <v>0</v>
+      </c>
+      <c r="T79" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U79" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V79" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W79" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X79" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y79" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z79" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA79" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB79" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC79" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" s="8" customFormat="1" spans="1:29">
+      <c r="A80" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F80" s="8">
+        <v>4</v>
+      </c>
+      <c r="H80" s="8">
+        <v>0</v>
+      </c>
+      <c r="I80" s="8">
+        <v>0</v>
+      </c>
+      <c r="J80" s="8">
+        <v>0</v>
+      </c>
+      <c r="K80" s="8">
+        <v>0</v>
+      </c>
+      <c r="L80" s="8">
+        <v>4</v>
+      </c>
+      <c r="M80" s="8">
+        <v>4</v>
+      </c>
+      <c r="N80" s="8">
+        <v>2</v>
+      </c>
+      <c r="O80" s="7">
+        <v>0</v>
+      </c>
+      <c r="P80" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="8">
+        <v>0</v>
+      </c>
+      <c r="R80" s="8">
+        <v>0</v>
+      </c>
+      <c r="T80" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U80" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V80" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W80" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X80" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y80" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z80" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA80" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB80" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC80" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" s="8" customFormat="1" spans="1:29">
+      <c r="A81" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F81" s="8">
+        <v>4</v>
+      </c>
+      <c r="H81" s="8">
+        <v>0</v>
+      </c>
+      <c r="I81" s="8">
+        <v>0</v>
+      </c>
+      <c r="J81" s="8">
+        <v>0</v>
+      </c>
+      <c r="K81" s="8">
+        <v>0</v>
+      </c>
+      <c r="L81" s="8">
+        <v>4</v>
+      </c>
+      <c r="M81" s="8">
+        <v>4</v>
+      </c>
+      <c r="N81" s="8">
+        <v>2</v>
+      </c>
+      <c r="O81" s="7">
+        <v>0</v>
+      </c>
+      <c r="P81" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="8">
+        <v>0</v>
+      </c>
+      <c r="R81" s="8">
+        <v>0</v>
+      </c>
+      <c r="T81" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U81" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V81" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W81" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X81" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y81" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z81" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA81" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB81" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC81" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" s="8" customFormat="1" spans="1:29">
+      <c r="A82" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F82" s="8">
+        <v>4</v>
+      </c>
+      <c r="H82" s="8">
+        <v>0</v>
+      </c>
+      <c r="I82" s="8">
+        <v>0</v>
+      </c>
+      <c r="J82" s="8">
+        <v>0</v>
+      </c>
+      <c r="K82" s="8">
+        <v>0</v>
+      </c>
+      <c r="L82" s="8">
+        <v>4</v>
+      </c>
+      <c r="M82" s="8">
+        <v>4</v>
+      </c>
+      <c r="N82" s="8">
+        <v>2</v>
+      </c>
+      <c r="O82" s="7">
+        <v>0</v>
+      </c>
+      <c r="P82" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="8">
+        <v>0</v>
+      </c>
+      <c r="R82" s="8">
+        <v>0</v>
+      </c>
+      <c r="T82" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U82" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V82" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W82" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X82" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y82" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z82" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA82" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB82" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC82" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" s="8" customFormat="1" spans="1:29">
+      <c r="A83" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F83" s="8">
+        <v>4</v>
+      </c>
+      <c r="H83" s="8">
+        <v>0</v>
+      </c>
+      <c r="I83" s="8">
+        <v>0</v>
+      </c>
+      <c r="J83" s="8">
+        <v>0</v>
+      </c>
+      <c r="K83" s="8">
+        <v>0</v>
+      </c>
+      <c r="L83" s="8">
+        <v>4</v>
+      </c>
+      <c r="M83" s="8">
+        <v>4</v>
+      </c>
+      <c r="N83" s="8">
+        <v>2</v>
+      </c>
+      <c r="O83" s="7">
+        <v>0</v>
+      </c>
+      <c r="P83" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="8">
+        <v>0</v>
+      </c>
+      <c r="R83" s="8">
+        <v>0</v>
+      </c>
+      <c r="T83" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U83" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V83" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W83" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X83" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y83" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z83" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA83" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB83" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC83" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" s="8" customFormat="1" spans="1:29">
+      <c r="A84" s="12">
+        <v>900</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F84" s="8">
+        <v>4</v>
+      </c>
+      <c r="H84" s="8">
+        <v>0</v>
+      </c>
+      <c r="I84" s="8">
+        <v>1</v>
+      </c>
+      <c r="J84" s="8">
+        <v>1</v>
+      </c>
+      <c r="K84" s="8">
+        <v>0</v>
+      </c>
+      <c r="L84" s="8">
+        <v>4</v>
+      </c>
+      <c r="M84" s="8">
+        <v>8</v>
+      </c>
+      <c r="N84" s="8">
+        <v>0</v>
+      </c>
+      <c r="O84" s="7">
+        <v>0</v>
+      </c>
+      <c r="P84" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="8">
+        <v>0</v>
+      </c>
+      <c r="R84" s="8">
+        <v>0</v>
+      </c>
+      <c r="T84" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="U84" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="V84" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="W84" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="X84" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y84" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z84" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA84" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB84" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC84" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" s="8" customFormat="1" spans="1:29">
+      <c r="A85" s="12">
+        <v>901</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="F85" s="8">
+        <v>4</v>
+      </c>
+      <c r="H85" s="8">
+        <v>0</v>
+      </c>
+      <c r="I85" s="8">
+        <v>0</v>
+      </c>
+      <c r="J85" s="8">
+        <v>0</v>
+      </c>
+      <c r="K85" s="8">
+        <v>0</v>
+      </c>
+      <c r="L85" s="8">
+        <v>0</v>
+      </c>
+      <c r="M85" s="8">
+        <v>1</v>
+      </c>
+      <c r="N85" s="8">
+        <v>1</v>
+      </c>
+      <c r="O85" s="7">
+        <v>0</v>
+      </c>
+      <c r="P85" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="8">
+        <v>0</v>
+      </c>
+      <c r="R85" s="8">
+        <v>0</v>
+      </c>
+      <c r="T85" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="U85" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="V85" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="W85" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="X85" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y85" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z85" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA85" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB85" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC85" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" s="8" customFormat="1" spans="1:29">
+      <c r="A86" s="12">
+        <v>503001</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="F86" s="8">
+        <v>11</v>
+      </c>
+      <c r="H86" s="8">
+        <v>0</v>
+      </c>
+      <c r="I86" s="8">
+        <v>0</v>
+      </c>
+      <c r="J86" s="8">
+        <v>0</v>
+      </c>
+      <c r="K86" s="8">
+        <v>0</v>
+      </c>
+      <c r="L86" s="8">
+        <v>4</v>
+      </c>
+      <c r="M86" s="8">
+        <v>4</v>
+      </c>
+      <c r="N86" s="8">
+        <v>2</v>
+      </c>
+      <c r="O86" s="7">
+        <v>0</v>
+      </c>
+      <c r="P86" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="8">
+        <v>0</v>
+      </c>
+      <c r="R86" s="8">
+        <v>0</v>
+      </c>
+      <c r="T86" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U86" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="V86" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="W86" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="X86" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y86" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z86" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA86" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB86" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC86" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" s="9" customFormat="1" spans="1:29">
+      <c r="A87" s="13">
+        <v>1000003</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F87" s="15">
+        <v>3</v>
+      </c>
+      <c r="G87" s="16"/>
+      <c r="H87" s="9">
+        <v>0</v>
+      </c>
+      <c r="I87" s="9">
+        <v>1</v>
+      </c>
+      <c r="J87" s="9">
+        <v>0</v>
+      </c>
+      <c r="K87" s="9">
+        <v>-1</v>
+      </c>
+      <c r="L87" s="9">
+        <v>0</v>
+      </c>
+      <c r="M87" s="9">
+        <v>0</v>
+      </c>
+      <c r="N87" s="9">
+        <v>0</v>
+      </c>
+      <c r="O87" s="9">
+        <v>0</v>
+      </c>
+      <c r="P87" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="9">
+        <v>0</v>
+      </c>
+      <c r="R87" s="9">
+        <v>0</v>
+      </c>
+      <c r="T87" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="U87" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="V87" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="W87" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="X87" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y87" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z87" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA87" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB87" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC87" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" s="8" customFormat="1" spans="1:29">
+      <c r="A88" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F88" s="8">
+        <v>4</v>
+      </c>
+      <c r="H88" s="8">
+        <v>0</v>
+      </c>
+      <c r="I88" s="8">
+        <v>0</v>
+      </c>
+      <c r="J88" s="8">
+        <v>0</v>
+      </c>
+      <c r="K88" s="8">
+        <v>0</v>
+      </c>
+      <c r="L88" s="8">
+        <v>4</v>
+      </c>
+      <c r="M88" s="8">
+        <v>4</v>
+      </c>
+      <c r="N88" s="8">
+        <v>2</v>
+      </c>
+      <c r="O88" s="7">
+        <v>0</v>
+      </c>
+      <c r="P88" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="8">
+        <v>0</v>
+      </c>
+      <c r="R88" s="8">
+        <v>0</v>
+      </c>
+      <c r="T88" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U88" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V88" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W88" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X88" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y88" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z88" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA88" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB88" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC88" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" s="8" customFormat="1" spans="1:29">
+      <c r="A89" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F89" s="8">
+        <v>4</v>
+      </c>
+      <c r="H89" s="8">
+        <v>0</v>
+      </c>
+      <c r="I89" s="8">
+        <v>0</v>
+      </c>
+      <c r="J89" s="8">
+        <v>0</v>
+      </c>
+      <c r="K89" s="8">
+        <v>0</v>
+      </c>
+      <c r="L89" s="8">
+        <v>4</v>
+      </c>
+      <c r="M89" s="8">
+        <v>4</v>
+      </c>
+      <c r="N89" s="8">
+        <v>2</v>
+      </c>
+      <c r="O89" s="7">
+        <v>0</v>
+      </c>
+      <c r="P89" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="8">
+        <v>0</v>
+      </c>
+      <c r="R89" s="8">
+        <v>0</v>
+      </c>
+      <c r="T89" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U89" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V89" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W89" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X89" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y89" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z89" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA89" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB89" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC89" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" s="8" customFormat="1" spans="1:29">
+      <c r="A90" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F90" s="8">
+        <v>4</v>
+      </c>
+      <c r="H90" s="8">
+        <v>0</v>
+      </c>
+      <c r="I90" s="8">
+        <v>0</v>
+      </c>
+      <c r="J90" s="8">
+        <v>0</v>
+      </c>
+      <c r="K90" s="8">
+        <v>0</v>
+      </c>
+      <c r="L90" s="8">
+        <v>4</v>
+      </c>
+      <c r="M90" s="8">
+        <v>4</v>
+      </c>
+      <c r="N90" s="8">
+        <v>2</v>
+      </c>
+      <c r="O90" s="7">
+        <v>0</v>
+      </c>
+      <c r="P90" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="8">
+        <v>0</v>
+      </c>
+      <c r="R90" s="8">
+        <v>0</v>
+      </c>
+      <c r="T90" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U90" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V90" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W90" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X90" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y90" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z90" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA90" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB90" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC90" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" s="8" customFormat="1" spans="1:29">
+      <c r="A91" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F91" s="8">
+        <v>4</v>
+      </c>
+      <c r="H91" s="8">
+        <v>0</v>
+      </c>
+      <c r="I91" s="8">
+        <v>0</v>
+      </c>
+      <c r="J91" s="8">
+        <v>0</v>
+      </c>
+      <c r="K91" s="8">
+        <v>0</v>
+      </c>
+      <c r="L91" s="8">
+        <v>4</v>
+      </c>
+      <c r="M91" s="8">
+        <v>4</v>
+      </c>
+      <c r="N91" s="8">
+        <v>2</v>
+      </c>
+      <c r="O91" s="7">
+        <v>0</v>
+      </c>
+      <c r="P91" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="8">
+        <v>0</v>
+      </c>
+      <c r="R91" s="8">
+        <v>0</v>
+      </c>
+      <c r="T91" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U91" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V91" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W91" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X91" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y91" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z91" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA91" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB91" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC91" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" s="9" customFormat="1" spans="1:29">
+      <c r="A92" s="13">
+        <v>1000003</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F92" s="15">
+        <v>3</v>
+      </c>
+      <c r="G92" s="16"/>
+      <c r="H92" s="9">
+        <v>0</v>
+      </c>
+      <c r="I92" s="9">
+        <v>1</v>
+      </c>
+      <c r="J92" s="9">
+        <v>0</v>
+      </c>
+      <c r="K92" s="9">
+        <v>-1</v>
+      </c>
+      <c r="L92" s="9">
+        <v>0</v>
+      </c>
+      <c r="M92" s="9">
+        <v>0</v>
+      </c>
+      <c r="N92" s="9">
+        <v>0</v>
+      </c>
+      <c r="O92" s="9">
+        <v>0</v>
+      </c>
+      <c r="P92" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="9">
+        <v>0</v>
+      </c>
+      <c r="R92" s="9">
+        <v>0</v>
+      </c>
+      <c r="T92" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="U92" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="V92" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="W92" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="X92" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y92" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z92" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA92" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB92" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC92" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" s="8" customFormat="1" spans="1:29">
+      <c r="A93" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F93" s="8">
+        <v>4</v>
+      </c>
+      <c r="H93" s="8">
+        <v>0</v>
+      </c>
+      <c r="I93" s="8">
+        <v>0</v>
+      </c>
+      <c r="J93" s="8">
+        <v>0</v>
+      </c>
+      <c r="K93" s="8">
+        <v>0</v>
+      </c>
+      <c r="L93" s="8">
+        <v>4</v>
+      </c>
+      <c r="M93" s="8">
+        <v>4</v>
+      </c>
+      <c r="N93" s="8">
+        <v>2</v>
+      </c>
+      <c r="O93" s="7">
+        <v>0</v>
+      </c>
+      <c r="P93" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="8">
+        <v>0</v>
+      </c>
+      <c r="R93" s="8">
+        <v>0</v>
+      </c>
+      <c r="T93" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U93" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V93" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W93" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X93" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y93" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z93" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA93" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB93" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC93" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" s="8" customFormat="1" spans="1:29">
+      <c r="A94" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F94" s="8">
+        <v>4</v>
+      </c>
+      <c r="H94" s="8">
+        <v>0</v>
+      </c>
+      <c r="I94" s="8">
+        <v>0</v>
+      </c>
+      <c r="J94" s="8">
+        <v>0</v>
+      </c>
+      <c r="K94" s="8">
+        <v>0</v>
+      </c>
+      <c r="L94" s="8">
+        <v>4</v>
+      </c>
+      <c r="M94" s="8">
+        <v>4</v>
+      </c>
+      <c r="N94" s="8">
+        <v>2</v>
+      </c>
+      <c r="O94" s="7">
+        <v>0</v>
+      </c>
+      <c r="P94" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="8">
+        <v>0</v>
+      </c>
+      <c r="R94" s="8">
+        <v>0</v>
+      </c>
+      <c r="T94" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U94" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V94" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W94" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X94" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y94" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z94" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA94" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB94" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC94" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" s="8" customFormat="1" spans="1:29">
+      <c r="A95" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F95" s="8">
+        <v>4</v>
+      </c>
+      <c r="H95" s="8">
+        <v>0</v>
+      </c>
+      <c r="I95" s="8">
+        <v>0</v>
+      </c>
+      <c r="J95" s="8">
+        <v>0</v>
+      </c>
+      <c r="K95" s="8">
+        <v>0</v>
+      </c>
+      <c r="L95" s="8">
+        <v>4</v>
+      </c>
+      <c r="M95" s="8">
+        <v>4</v>
+      </c>
+      <c r="N95" s="8">
+        <v>2</v>
+      </c>
+      <c r="O95" s="7">
+        <v>0</v>
+      </c>
+      <c r="P95" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="8">
+        <v>0</v>
+      </c>
+      <c r="R95" s="8">
+        <v>0</v>
+      </c>
+      <c r="T95" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U95" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V95" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W95" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X95" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y95" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z95" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA95" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB95" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC95" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" s="8" customFormat="1" spans="1:29">
+      <c r="A96" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F96" s="8">
+        <v>4</v>
+      </c>
+      <c r="H96" s="8">
+        <v>0</v>
+      </c>
+      <c r="I96" s="8">
+        <v>0</v>
+      </c>
+      <c r="J96" s="8">
+        <v>0</v>
+      </c>
+      <c r="K96" s="8">
+        <v>0</v>
+      </c>
+      <c r="L96" s="8">
+        <v>4</v>
+      </c>
+      <c r="M96" s="8">
+        <v>4</v>
+      </c>
+      <c r="N96" s="8">
+        <v>2</v>
+      </c>
+      <c r="O96" s="7">
+        <v>0</v>
+      </c>
+      <c r="P96" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="8">
+        <v>0</v>
+      </c>
+      <c r="R96" s="8">
+        <v>0</v>
+      </c>
+      <c r="T96" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U96" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V96" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W96" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X96" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y96" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z96" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA96" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB96" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC96" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" s="8" customFormat="1" spans="1:29">
+      <c r="A97" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F97" s="8">
+        <v>4</v>
+      </c>
+      <c r="H97" s="8">
+        <v>0</v>
+      </c>
+      <c r="I97" s="8">
+        <v>0</v>
+      </c>
+      <c r="J97" s="8">
+        <v>0</v>
+      </c>
+      <c r="K97" s="8">
+        <v>0</v>
+      </c>
+      <c r="L97" s="8">
+        <v>4</v>
+      </c>
+      <c r="M97" s="8">
+        <v>4</v>
+      </c>
+      <c r="N97" s="8">
+        <v>2</v>
+      </c>
+      <c r="O97" s="7">
+        <v>0</v>
+      </c>
+      <c r="P97" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="8">
+        <v>0</v>
+      </c>
+      <c r="R97" s="8">
+        <v>0</v>
+      </c>
+      <c r="T97" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U97" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V97" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W97" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X97" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y97" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z97" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA97" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB97" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC97" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" s="8" customFormat="1" spans="1:29">
+      <c r="A98" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F98" s="8">
+        <v>4</v>
+      </c>
+      <c r="H98" s="8">
+        <v>0</v>
+      </c>
+      <c r="I98" s="8">
+        <v>0</v>
+      </c>
+      <c r="J98" s="8">
+        <v>0</v>
+      </c>
+      <c r="K98" s="8">
+        <v>0</v>
+      </c>
+      <c r="L98" s="8">
+        <v>4</v>
+      </c>
+      <c r="M98" s="8">
+        <v>4</v>
+      </c>
+      <c r="N98" s="8">
+        <v>2</v>
+      </c>
+      <c r="O98" s="7">
+        <v>0</v>
+      </c>
+      <c r="P98" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="8">
+        <v>0</v>
+      </c>
+      <c r="R98" s="8">
+        <v>0</v>
+      </c>
+      <c r="T98" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U98" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V98" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W98" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X98" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y98" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z98" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA98" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB98" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC98" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" s="8" customFormat="1" spans="1:29">
+      <c r="A99" s="12">
+        <v>900</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F99" s="8">
+        <v>4</v>
+      </c>
+      <c r="H99" s="8">
+        <v>0</v>
+      </c>
+      <c r="I99" s="8">
+        <v>1</v>
+      </c>
+      <c r="J99" s="8">
+        <v>1</v>
+      </c>
+      <c r="K99" s="8">
+        <v>0</v>
+      </c>
+      <c r="L99" s="8">
+        <v>4</v>
+      </c>
+      <c r="M99" s="8">
+        <v>8</v>
+      </c>
+      <c r="N99" s="8">
+        <v>0</v>
+      </c>
+      <c r="O99" s="7">
+        <v>0</v>
+      </c>
+      <c r="P99" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="8">
+        <v>0</v>
+      </c>
+      <c r="R99" s="8">
+        <v>0</v>
+      </c>
+      <c r="T99" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="U99" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="V99" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="W99" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="X99" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y99" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z99" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA99" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB99" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC99" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" s="8" customFormat="1" spans="1:29">
+      <c r="A100" s="12">
+        <v>901</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="F100" s="8">
+        <v>4</v>
+      </c>
+      <c r="H100" s="8">
+        <v>0</v>
+      </c>
+      <c r="I100" s="8">
+        <v>0</v>
+      </c>
+      <c r="J100" s="8">
+        <v>0</v>
+      </c>
+      <c r="K100" s="8">
+        <v>0</v>
+      </c>
+      <c r="L100" s="8">
+        <v>0</v>
+      </c>
+      <c r="M100" s="8">
+        <v>1</v>
+      </c>
+      <c r="N100" s="8">
+        <v>1</v>
+      </c>
+      <c r="O100" s="7">
+        <v>0</v>
+      </c>
+      <c r="P100" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="8">
+        <v>0</v>
+      </c>
+      <c r="R100" s="8">
+        <v>0</v>
+      </c>
+      <c r="T100" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="U100" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="V100" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="W100" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="X100" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y100" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z100" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA100" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB100" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC100" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" s="8" customFormat="1" spans="1:29">
+      <c r="A101" s="12">
+        <v>503001</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="F101" s="8">
+        <v>11</v>
+      </c>
+      <c r="H101" s="8">
+        <v>0</v>
+      </c>
+      <c r="I101" s="8">
+        <v>0</v>
+      </c>
+      <c r="J101" s="8">
+        <v>0</v>
+      </c>
+      <c r="K101" s="8">
+        <v>0</v>
+      </c>
+      <c r="L101" s="8">
+        <v>4</v>
+      </c>
+      <c r="M101" s="8">
+        <v>4</v>
+      </c>
+      <c r="N101" s="8">
+        <v>2</v>
+      </c>
+      <c r="O101" s="7">
+        <v>0</v>
+      </c>
+      <c r="P101" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="8">
+        <v>0</v>
+      </c>
+      <c r="R101" s="8">
+        <v>0</v>
+      </c>
+      <c r="T101" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U101" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="V101" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="W101" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="X101" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y101" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z101" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA101" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB101" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC101" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" s="9" customFormat="1" spans="1:29">
+      <c r="A102" s="13">
+        <v>1000003</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F102" s="15">
+        <v>3</v>
+      </c>
+      <c r="G102" s="16"/>
+      <c r="H102" s="9">
+        <v>0</v>
+      </c>
+      <c r="I102" s="9">
+        <v>1</v>
+      </c>
+      <c r="J102" s="9">
+        <v>0</v>
+      </c>
+      <c r="K102" s="9">
+        <v>-1</v>
+      </c>
+      <c r="L102" s="9">
+        <v>0</v>
+      </c>
+      <c r="M102" s="9">
+        <v>0</v>
+      </c>
+      <c r="N102" s="9">
+        <v>0</v>
+      </c>
+      <c r="O102" s="9">
+        <v>0</v>
+      </c>
+      <c r="P102" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="9">
+        <v>0</v>
+      </c>
+      <c r="R102" s="9">
+        <v>0</v>
+      </c>
+      <c r="T102" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="U102" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="V102" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="W102" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="X102" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y102" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z102" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA102" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB102" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC102" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" s="8" customFormat="1" spans="1:29">
+      <c r="A103" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F103" s="8">
+        <v>4</v>
+      </c>
+      <c r="H103" s="8">
+        <v>0</v>
+      </c>
+      <c r="I103" s="8">
+        <v>0</v>
+      </c>
+      <c r="J103" s="8">
+        <v>0</v>
+      </c>
+      <c r="K103" s="8">
+        <v>0</v>
+      </c>
+      <c r="L103" s="8">
+        <v>4</v>
+      </c>
+      <c r="M103" s="8">
+        <v>4</v>
+      </c>
+      <c r="N103" s="8">
+        <v>2</v>
+      </c>
+      <c r="O103" s="7">
+        <v>0</v>
+      </c>
+      <c r="P103" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="8">
+        <v>0</v>
+      </c>
+      <c r="R103" s="8">
+        <v>0</v>
+      </c>
+      <c r="T103" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U103" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V103" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W103" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X103" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y103" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z103" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA103" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB103" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC103" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" s="8" customFormat="1" spans="1:29">
+      <c r="A104" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F104" s="8">
+        <v>4</v>
+      </c>
+      <c r="H104" s="8">
+        <v>0</v>
+      </c>
+      <c r="I104" s="8">
+        <v>0</v>
+      </c>
+      <c r="J104" s="8">
+        <v>0</v>
+      </c>
+      <c r="K104" s="8">
+        <v>0</v>
+      </c>
+      <c r="L104" s="8">
+        <v>4</v>
+      </c>
+      <c r="M104" s="8">
+        <v>4</v>
+      </c>
+      <c r="N104" s="8">
+        <v>2</v>
+      </c>
+      <c r="O104" s="7">
+        <v>0</v>
+      </c>
+      <c r="P104" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="8">
+        <v>0</v>
+      </c>
+      <c r="R104" s="8">
+        <v>0</v>
+      </c>
+      <c r="T104" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U104" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V104" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W104" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X104" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y104" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z104" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA104" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB104" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC104" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" s="8" customFormat="1" spans="1:29">
+      <c r="A105" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F105" s="8">
+        <v>4</v>
+      </c>
+      <c r="H105" s="8">
+        <v>0</v>
+      </c>
+      <c r="I105" s="8">
+        <v>0</v>
+      </c>
+      <c r="J105" s="8">
+        <v>0</v>
+      </c>
+      <c r="K105" s="8">
+        <v>0</v>
+      </c>
+      <c r="L105" s="8">
+        <v>4</v>
+      </c>
+      <c r="M105" s="8">
+        <v>4</v>
+      </c>
+      <c r="N105" s="8">
+        <v>2</v>
+      </c>
+      <c r="O105" s="7">
+        <v>0</v>
+      </c>
+      <c r="P105" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="8">
+        <v>0</v>
+      </c>
+      <c r="R105" s="8">
+        <v>0</v>
+      </c>
+      <c r="T105" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U105" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V105" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W105" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X105" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y105" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z105" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA105" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB105" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC105" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" s="8" customFormat="1" spans="1:29">
+      <c r="A106" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F106" s="8">
+        <v>4</v>
+      </c>
+      <c r="H106" s="8">
+        <v>0</v>
+      </c>
+      <c r="I106" s="8">
+        <v>0</v>
+      </c>
+      <c r="J106" s="8">
+        <v>0</v>
+      </c>
+      <c r="K106" s="8">
+        <v>0</v>
+      </c>
+      <c r="L106" s="8">
+        <v>4</v>
+      </c>
+      <c r="M106" s="8">
+        <v>4</v>
+      </c>
+      <c r="N106" s="8">
+        <v>2</v>
+      </c>
+      <c r="O106" s="7">
+        <v>0</v>
+      </c>
+      <c r="P106" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="8">
+        <v>0</v>
+      </c>
+      <c r="R106" s="8">
+        <v>0</v>
+      </c>
+      <c r="T106" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U106" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V106" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W106" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X106" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y106" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z106" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA106" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB106" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC106" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" s="8" customFormat="1" spans="1:29">
+      <c r="A107" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F107" s="8">
+        <v>4</v>
+      </c>
+      <c r="H107" s="8">
+        <v>0</v>
+      </c>
+      <c r="I107" s="8">
+        <v>0</v>
+      </c>
+      <c r="J107" s="8">
+        <v>0</v>
+      </c>
+      <c r="K107" s="8">
+        <v>0</v>
+      </c>
+      <c r="L107" s="8">
+        <v>4</v>
+      </c>
+      <c r="M107" s="8">
+        <v>4</v>
+      </c>
+      <c r="N107" s="8">
+        <v>2</v>
+      </c>
+      <c r="O107" s="7">
+        <v>0</v>
+      </c>
+      <c r="P107" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="8">
+        <v>0</v>
+      </c>
+      <c r="R107" s="8">
+        <v>0</v>
+      </c>
+      <c r="T107" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U107" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V107" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W107" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X107" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y107" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z107" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA107" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB107" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC107" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" s="8" customFormat="1" spans="1:29">
+      <c r="A108" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F108" s="8">
+        <v>4</v>
+      </c>
+      <c r="H108" s="8">
+        <v>0</v>
+      </c>
+      <c r="I108" s="8">
+        <v>0</v>
+      </c>
+      <c r="J108" s="8">
+        <v>0</v>
+      </c>
+      <c r="K108" s="8">
+        <v>0</v>
+      </c>
+      <c r="L108" s="8">
+        <v>4</v>
+      </c>
+      <c r="M108" s="8">
+        <v>4</v>
+      </c>
+      <c r="N108" s="8">
+        <v>2</v>
+      </c>
+      <c r="O108" s="7">
+        <v>0</v>
+      </c>
+      <c r="P108" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q108" s="8">
+        <v>0</v>
+      </c>
+      <c r="R108" s="8">
+        <v>0</v>
+      </c>
+      <c r="T108" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U108" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V108" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W108" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X108" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y108" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z108" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA108" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB108" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC108" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" s="8" customFormat="1" spans="1:29">
+      <c r="A109" s="12">
+        <v>900</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F109" s="8">
+        <v>4</v>
+      </c>
+      <c r="H109" s="8">
+        <v>0</v>
+      </c>
+      <c r="I109" s="8">
+        <v>1</v>
+      </c>
+      <c r="J109" s="8">
+        <v>1</v>
+      </c>
+      <c r="K109" s="8">
+        <v>0</v>
+      </c>
+      <c r="L109" s="8">
+        <v>4</v>
+      </c>
+      <c r="M109" s="8">
+        <v>8</v>
+      </c>
+      <c r="N109" s="8">
+        <v>0</v>
+      </c>
+      <c r="O109" s="7">
+        <v>0</v>
+      </c>
+      <c r="P109" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="8">
+        <v>0</v>
+      </c>
+      <c r="R109" s="8">
+        <v>0</v>
+      </c>
+      <c r="T109" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="U109" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="V109" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="W109" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="X109" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y109" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z109" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA109" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB109" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC109" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" s="8" customFormat="1" spans="1:29">
+      <c r="A110" s="12">
+        <v>901</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="F110" s="8">
+        <v>4</v>
+      </c>
+      <c r="H110" s="8">
+        <v>0</v>
+      </c>
+      <c r="I110" s="8">
+        <v>0</v>
+      </c>
+      <c r="J110" s="8">
+        <v>0</v>
+      </c>
+      <c r="K110" s="8">
+        <v>0</v>
+      </c>
+      <c r="L110" s="8">
+        <v>0</v>
+      </c>
+      <c r="M110" s="8">
+        <v>1</v>
+      </c>
+      <c r="N110" s="8">
+        <v>1</v>
+      </c>
+      <c r="O110" s="7">
+        <v>0</v>
+      </c>
+      <c r="P110" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="8">
+        <v>0</v>
+      </c>
+      <c r="R110" s="8">
+        <v>0</v>
+      </c>
+      <c r="T110" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="U110" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="V110" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="W110" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="X110" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y110" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z110" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA110" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB110" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC110" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" s="8" customFormat="1" spans="1:29">
+      <c r="A111" s="12">
+        <v>503001</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="F111" s="8">
+        <v>11</v>
+      </c>
+      <c r="H111" s="8">
+        <v>0</v>
+      </c>
+      <c r="I111" s="8">
+        <v>0</v>
+      </c>
+      <c r="J111" s="8">
+        <v>0</v>
+      </c>
+      <c r="K111" s="8">
+        <v>0</v>
+      </c>
+      <c r="L111" s="8">
+        <v>4</v>
+      </c>
+      <c r="M111" s="8">
+        <v>4</v>
+      </c>
+      <c r="N111" s="8">
+        <v>2</v>
+      </c>
+      <c r="O111" s="7">
+        <v>0</v>
+      </c>
+      <c r="P111" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="8">
+        <v>0</v>
+      </c>
+      <c r="R111" s="8">
+        <v>0</v>
+      </c>
+      <c r="T111" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U111" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="V111" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="W111" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="X111" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y111" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z111" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA111" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB111" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC111" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" s="9" customFormat="1" spans="1:29">
+      <c r="A112" s="13">
+        <v>1000003</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F112" s="15">
+        <v>3</v>
+      </c>
+      <c r="G112" s="16"/>
+      <c r="H112" s="9">
+        <v>0</v>
+      </c>
+      <c r="I112" s="9">
+        <v>1</v>
+      </c>
+      <c r="J112" s="9">
+        <v>0</v>
+      </c>
+      <c r="K112" s="9">
+        <v>-1</v>
+      </c>
+      <c r="L112" s="9">
+        <v>0</v>
+      </c>
+      <c r="M112" s="9">
+        <v>0</v>
+      </c>
+      <c r="N112" s="9">
+        <v>0</v>
+      </c>
+      <c r="O112" s="9">
+        <v>0</v>
+      </c>
+      <c r="P112" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="9">
+        <v>0</v>
+      </c>
+      <c r="R112" s="9">
+        <v>0</v>
+      </c>
+      <c r="T112" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="U112" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="V112" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="W112" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="X112" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y112" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z112" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA112" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB112" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC112" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" s="8" customFormat="1" spans="1:29">
+      <c r="A113" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F113" s="8">
+        <v>4</v>
+      </c>
+      <c r="H113" s="8">
+        <v>0</v>
+      </c>
+      <c r="I113" s="8">
+        <v>0</v>
+      </c>
+      <c r="J113" s="8">
+        <v>0</v>
+      </c>
+      <c r="K113" s="8">
+        <v>0</v>
+      </c>
+      <c r="L113" s="8">
+        <v>4</v>
+      </c>
+      <c r="M113" s="8">
+        <v>4</v>
+      </c>
+      <c r="N113" s="8">
+        <v>2</v>
+      </c>
+      <c r="O113" s="7">
+        <v>0</v>
+      </c>
+      <c r="P113" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="8">
+        <v>0</v>
+      </c>
+      <c r="R113" s="8">
+        <v>0</v>
+      </c>
+      <c r="T113" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U113" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V113" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W113" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X113" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y113" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z113" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA113" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB113" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC113" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" s="8" customFormat="1" spans="1:29">
+      <c r="A114" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F114" s="8">
+        <v>4</v>
+      </c>
+      <c r="H114" s="8">
+        <v>0</v>
+      </c>
+      <c r="I114" s="8">
+        <v>0</v>
+      </c>
+      <c r="J114" s="8">
+        <v>0</v>
+      </c>
+      <c r="K114" s="8">
+        <v>0</v>
+      </c>
+      <c r="L114" s="8">
+        <v>4</v>
+      </c>
+      <c r="M114" s="8">
+        <v>4</v>
+      </c>
+      <c r="N114" s="8">
+        <v>2</v>
+      </c>
+      <c r="O114" s="7">
+        <v>0</v>
+      </c>
+      <c r="P114" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="8">
+        <v>0</v>
+      </c>
+      <c r="R114" s="8">
+        <v>0</v>
+      </c>
+      <c r="T114" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U114" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V114" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W114" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X114" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y114" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z114" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA114" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB114" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC114" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" s="8" customFormat="1" spans="1:29">
+      <c r="A115" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F115" s="8">
+        <v>4</v>
+      </c>
+      <c r="H115" s="8">
+        <v>0</v>
+      </c>
+      <c r="I115" s="8">
+        <v>0</v>
+      </c>
+      <c r="J115" s="8">
+        <v>0</v>
+      </c>
+      <c r="K115" s="8">
+        <v>0</v>
+      </c>
+      <c r="L115" s="8">
+        <v>4</v>
+      </c>
+      <c r="M115" s="8">
+        <v>4</v>
+      </c>
+      <c r="N115" s="8">
+        <v>2</v>
+      </c>
+      <c r="O115" s="7">
+        <v>0</v>
+      </c>
+      <c r="P115" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q115" s="8">
+        <v>0</v>
+      </c>
+      <c r="R115" s="8">
+        <v>0</v>
+      </c>
+      <c r="T115" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U115" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V115" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W115" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X115" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y115" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z115" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA115" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB115" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC115" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" s="8" customFormat="1" spans="1:29">
+      <c r="A116" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F116" s="8">
+        <v>4</v>
+      </c>
+      <c r="H116" s="8">
+        <v>0</v>
+      </c>
+      <c r="I116" s="8">
+        <v>0</v>
+      </c>
+      <c r="J116" s="8">
+        <v>0</v>
+      </c>
+      <c r="K116" s="8">
+        <v>0</v>
+      </c>
+      <c r="L116" s="8">
+        <v>4</v>
+      </c>
+      <c r="M116" s="8">
+        <v>4</v>
+      </c>
+      <c r="N116" s="8">
+        <v>2</v>
+      </c>
+      <c r="O116" s="7">
+        <v>0</v>
+      </c>
+      <c r="P116" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q116" s="8">
+        <v>0</v>
+      </c>
+      <c r="R116" s="8">
+        <v>0</v>
+      </c>
+      <c r="T116" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U116" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V116" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W116" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X116" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y116" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z116" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA116" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB116" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC116" s="8">
         <v>0</v>
       </c>
     </row>

--- a/test/Menu.xlsx
+++ b/test/Menu.xlsx
@@ -217,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC2" authorId="1">
+    <comment ref="AB2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -692,10 +692,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -728,22 +728,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -758,21 +773,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -783,6 +800,22 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -803,48 +836,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -855,17 +849,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -878,12 +878,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -922,97 +922,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,13 +940,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,7 +958,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1060,13 +988,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1078,31 +1024,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1146,6 +1146,56 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1157,6 +1207,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1179,67 +1238,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1249,10 +1249,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1261,133 +1261,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1748,14 +1748,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC116"/>
+  <dimension ref="A1:AB116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="T88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A92" sqref="$A92:$XFD116"/>
+      <selection pane="bottomRight" activeCell="S1" sqref="S$1:S$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1774,13 +1774,13 @@
     <col min="12" max="14" width="24.25" style="2" customWidth="1"/>
     <col min="15" max="15" width="17" style="2" customWidth="1"/>
     <col min="16" max="16" width="16.5" style="2" customWidth="1"/>
-    <col min="17" max="19" width="17.625" style="2" customWidth="1"/>
-    <col min="20" max="28" width="18.5" style="1" customWidth="1"/>
-    <col min="29" max="29" width="17.625" style="2" customWidth="1"/>
-    <col min="30" max="16384" width="9" style="2"/>
+    <col min="17" max="18" width="17.625" style="2" customWidth="1"/>
+    <col min="19" max="27" width="18.5" style="1" customWidth="1"/>
+    <col min="28" max="28" width="17.625" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" spans="1:29">
+    <row r="1" ht="20.25" spans="1:28">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1835,7 +1835,9 @@
       <c r="R1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="3"/>
+      <c r="S1" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="T1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1861,13 +1863,10 @@
         <v>1</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" ht="20.25" spans="1:29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" ht="20.25" spans="1:28">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1922,7 +1921,9 @@
       <c r="R2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="3"/>
+      <c r="S2" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="T2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1948,13 +1949,10 @@
         <v>7</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC2" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" ht="20.25" spans="1:29">
+    <row r="3" ht="20.25" spans="1:28">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -2009,7 +2007,9 @@
       <c r="R3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="S3" s="3"/>
+      <c r="S3" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="T3" s="3" t="s">
         <v>23</v>
       </c>
@@ -2035,13 +2035,10 @@
         <v>23</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC3" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" ht="20.25" spans="1:29">
+    <row r="4" ht="20.25" spans="1:28">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2096,7 +2093,9 @@
       <c r="R4" s="5">
         <v>3</v>
       </c>
-      <c r="S4" s="5"/>
+      <c r="S4" s="5">
+        <v>3</v>
+      </c>
       <c r="T4" s="5">
         <v>3</v>
       </c>
@@ -2124,11 +2123,8 @@
       <c r="AB4" s="5">
         <v>3</v>
       </c>
-      <c r="AC4" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" s="7" customFormat="1" spans="1:29">
+    </row>
+    <row r="5" s="7" customFormat="1" spans="1:28">
       <c r="A5" s="10">
         <v>100</v>
       </c>
@@ -2179,6 +2175,9 @@
       <c r="R5" s="7">
         <v>0</v>
       </c>
+      <c r="S5" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="T5" s="11" t="s">
         <v>39</v>
       </c>
@@ -2203,14 +2202,11 @@
       <c r="AA5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AB5" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" s="8" customFormat="1" spans="1:29">
+      <c r="AB5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="8" customFormat="1" spans="1:28">
       <c r="A6" s="12">
         <v>101</v>
       </c>
@@ -2258,6 +2254,9 @@
       <c r="R6" s="8">
         <v>0</v>
       </c>
+      <c r="S6" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="T6" s="12" t="s">
         <v>42</v>
       </c>
@@ -2282,14 +2281,11 @@
       <c r="AA6" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AB6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC6" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="8" customFormat="1" spans="1:29">
+      <c r="AB6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="8" customFormat="1" spans="1:28">
       <c r="A7" s="12">
         <v>202</v>
       </c>
@@ -2342,6 +2338,9 @@
       <c r="R7" s="8">
         <v>0</v>
       </c>
+      <c r="S7" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="T7" s="12" t="s">
         <v>44</v>
       </c>
@@ -2366,14 +2365,11 @@
       <c r="AA7" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AB7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" s="8" customFormat="1" spans="1:29">
+      <c r="AB7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="8" customFormat="1" spans="1:28">
       <c r="A8" s="12">
         <v>207</v>
       </c>
@@ -2426,6 +2422,9 @@
       <c r="R8" s="8">
         <v>0</v>
       </c>
+      <c r="S8" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="T8" s="12" t="s">
         <v>46</v>
       </c>
@@ -2450,14 +2449,11 @@
       <c r="AA8" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AB8" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC8" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" s="8" customFormat="1" spans="1:29">
+      <c r="AB8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="8" customFormat="1" spans="1:28">
       <c r="A9" s="12">
         <v>208</v>
       </c>
@@ -2510,6 +2506,9 @@
       <c r="R9" s="8">
         <v>0</v>
       </c>
+      <c r="S9" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="T9" s="12" t="s">
         <v>48</v>
       </c>
@@ -2534,14 +2533,11 @@
       <c r="AA9" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="AB9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC9" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" s="8" customFormat="1" spans="1:29">
+      <c r="AB9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" s="8" customFormat="1" spans="1:28">
       <c r="A10" s="12">
         <v>402</v>
       </c>
@@ -2588,6 +2584,9 @@
       <c r="R10" s="8">
         <v>0</v>
       </c>
+      <c r="S10" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="T10" s="12" t="s">
         <v>50</v>
       </c>
@@ -2612,14 +2611,11 @@
       <c r="AA10" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AB10" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" s="8" customFormat="1" spans="1:29">
+      <c r="AB10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" s="8" customFormat="1" spans="1:28">
       <c r="A11" s="12">
         <v>401</v>
       </c>
@@ -2666,6 +2662,9 @@
       <c r="R11" s="8">
         <v>0</v>
       </c>
+      <c r="S11" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="T11" s="12" t="s">
         <v>51</v>
       </c>
@@ -2690,14 +2689,11 @@
       <c r="AA11" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="AB11" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" s="8" customFormat="1" spans="1:29">
+      <c r="AB11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" s="8" customFormat="1" spans="1:28">
       <c r="A12" s="12">
         <v>700</v>
       </c>
@@ -2745,6 +2741,9 @@
       <c r="R12" s="8">
         <v>0</v>
       </c>
+      <c r="S12" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="T12" s="12" t="s">
         <v>52</v>
       </c>
@@ -2769,14 +2768,11 @@
       <c r="AA12" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AB12" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" s="8" customFormat="1" spans="1:29">
+      <c r="AB12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" s="8" customFormat="1" spans="1:28">
       <c r="A13" s="12">
         <v>900</v>
       </c>
@@ -2824,6 +2820,9 @@
       <c r="R13" s="8">
         <v>0</v>
       </c>
+      <c r="S13" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="T13" s="12" t="s">
         <v>54</v>
       </c>
@@ -2848,14 +2847,11 @@
       <c r="AA13" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="AB13" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" s="8" customFormat="1" spans="1:29">
+      <c r="AB13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" s="8" customFormat="1" spans="1:28">
       <c r="A14" s="12">
         <v>901</v>
       </c>
@@ -2900,6 +2896,9 @@
       <c r="R14" s="8">
         <v>0</v>
       </c>
+      <c r="S14" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="T14" s="12" t="s">
         <v>56</v>
       </c>
@@ -2924,14 +2923,11 @@
       <c r="AA14" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AB14" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC14" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" s="8" customFormat="1" spans="1:29">
+      <c r="AB14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" s="8" customFormat="1" spans="1:28">
       <c r="A15" s="12">
         <v>503001</v>
       </c>
@@ -2976,6 +2972,9 @@
       <c r="R15" s="8">
         <v>0</v>
       </c>
+      <c r="S15" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="T15" s="12" t="s">
         <v>57</v>
       </c>
@@ -3000,14 +2999,11 @@
       <c r="AA15" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AB15" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC15" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" s="9" customFormat="1" spans="1:29">
+      <c r="AB15" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" s="9" customFormat="1" spans="1:28">
       <c r="A16" s="13">
         <v>1000003</v>
       </c>
@@ -3056,6 +3052,9 @@
       <c r="R16" s="9">
         <v>0</v>
       </c>
+      <c r="S16" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="T16" s="14" t="s">
         <v>58</v>
       </c>
@@ -3080,14 +3079,11 @@
       <c r="AA16" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AB16" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC16" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" s="8" customFormat="1" spans="1:29">
+      <c r="AB16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" s="8" customFormat="1" spans="1:28">
       <c r="A17" s="12">
         <v>2000001</v>
       </c>
@@ -3135,6 +3131,9 @@
       <c r="R17" s="8">
         <v>0</v>
       </c>
+      <c r="S17" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T17" s="12" t="s">
         <v>60</v>
       </c>
@@ -3159,14 +3158,11 @@
       <c r="AA17" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB17" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC17" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" s="8" customFormat="1" spans="1:29">
+      <c r="AB17" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" s="8" customFormat="1" spans="1:28">
       <c r="A18" s="12">
         <v>2000001</v>
       </c>
@@ -3214,6 +3210,9 @@
       <c r="R18" s="8">
         <v>0</v>
       </c>
+      <c r="S18" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T18" s="12" t="s">
         <v>60</v>
       </c>
@@ -3238,14 +3237,11 @@
       <c r="AA18" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB18" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC18" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" s="8" customFormat="1" spans="1:29">
+      <c r="AB18" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" s="8" customFormat="1" spans="1:28">
       <c r="A19" s="12">
         <v>2000001</v>
       </c>
@@ -3293,6 +3289,9 @@
       <c r="R19" s="8">
         <v>0</v>
       </c>
+      <c r="S19" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T19" s="12" t="s">
         <v>60</v>
       </c>
@@ -3317,14 +3316,11 @@
       <c r="AA19" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB19" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC19" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" s="8" customFormat="1" spans="1:29">
+      <c r="AB19" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" s="8" customFormat="1" spans="1:28">
       <c r="A20" s="12">
         <v>900</v>
       </c>
@@ -3372,6 +3368,9 @@
       <c r="R20" s="8">
         <v>0</v>
       </c>
+      <c r="S20" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="T20" s="12" t="s">
         <v>54</v>
       </c>
@@ -3396,14 +3395,11 @@
       <c r="AA20" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="AB20" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC20" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" s="8" customFormat="1" spans="1:29">
+      <c r="AB20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" s="8" customFormat="1" spans="1:28">
       <c r="A21" s="12">
         <v>901</v>
       </c>
@@ -3448,6 +3444,9 @@
       <c r="R21" s="8">
         <v>0</v>
       </c>
+      <c r="S21" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="T21" s="12" t="s">
         <v>56</v>
       </c>
@@ -3472,14 +3471,11 @@
       <c r="AA21" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AB21" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC21" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" s="8" customFormat="1" spans="1:29">
+      <c r="AB21" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" s="8" customFormat="1" spans="1:28">
       <c r="A22" s="12">
         <v>503001</v>
       </c>
@@ -3524,6 +3520,9 @@
       <c r="R22" s="8">
         <v>0</v>
       </c>
+      <c r="S22" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="T22" s="12" t="s">
         <v>57</v>
       </c>
@@ -3548,14 +3547,11 @@
       <c r="AA22" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AB22" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC22" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" s="9" customFormat="1" spans="1:29">
+      <c r="AB22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" s="9" customFormat="1" spans="1:28">
       <c r="A23" s="13">
         <v>1000003</v>
       </c>
@@ -3604,6 +3600,9 @@
       <c r="R23" s="9">
         <v>0</v>
       </c>
+      <c r="S23" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="T23" s="14" t="s">
         <v>58</v>
       </c>
@@ -3628,14 +3627,11 @@
       <c r="AA23" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AB23" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC23" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" s="8" customFormat="1" spans="1:29">
+      <c r="AB23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" s="8" customFormat="1" spans="1:28">
       <c r="A24" s="12">
         <v>2000001</v>
       </c>
@@ -3683,6 +3679,9 @@
       <c r="R24" s="8">
         <v>0</v>
       </c>
+      <c r="S24" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T24" s="12" t="s">
         <v>60</v>
       </c>
@@ -3707,14 +3706,11 @@
       <c r="AA24" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB24" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC24" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" s="8" customFormat="1" spans="1:29">
+      <c r="AB24" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" s="8" customFormat="1" spans="1:28">
       <c r="A25" s="12">
         <v>2000001</v>
       </c>
@@ -3762,6 +3758,9 @@
       <c r="R25" s="8">
         <v>0</v>
       </c>
+      <c r="S25" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T25" s="12" t="s">
         <v>60</v>
       </c>
@@ -3786,14 +3785,11 @@
       <c r="AA25" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB25" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC25" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" s="8" customFormat="1" spans="1:29">
+      <c r="AB25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" s="8" customFormat="1" spans="1:28">
       <c r="A26" s="12">
         <v>2000001</v>
       </c>
@@ -3841,6 +3837,9 @@
       <c r="R26" s="8">
         <v>0</v>
       </c>
+      <c r="S26" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T26" s="12" t="s">
         <v>60</v>
       </c>
@@ -3865,14 +3864,11 @@
       <c r="AA26" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB26" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC26" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" s="8" customFormat="1" spans="1:29">
+      <c r="AB26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" s="8" customFormat="1" spans="1:28">
       <c r="A27" s="12">
         <v>2000001</v>
       </c>
@@ -3920,6 +3916,9 @@
       <c r="R27" s="8">
         <v>0</v>
       </c>
+      <c r="S27" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T27" s="12" t="s">
         <v>60</v>
       </c>
@@ -3944,14 +3943,11 @@
       <c r="AA27" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB27" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC27" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" s="8" customFormat="1" spans="1:29">
+      <c r="AB27" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" s="8" customFormat="1" spans="1:28">
       <c r="A28" s="12">
         <v>2000001</v>
       </c>
@@ -3999,6 +3995,9 @@
       <c r="R28" s="8">
         <v>0</v>
       </c>
+      <c r="S28" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T28" s="12" t="s">
         <v>60</v>
       </c>
@@ -4023,14 +4022,11 @@
       <c r="AA28" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB28" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC28" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" s="8" customFormat="1" spans="1:29">
+      <c r="AB28" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" s="8" customFormat="1" spans="1:28">
       <c r="A29" s="12">
         <v>2000001</v>
       </c>
@@ -4078,6 +4074,9 @@
       <c r="R29" s="8">
         <v>0</v>
       </c>
+      <c r="S29" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T29" s="12" t="s">
         <v>60</v>
       </c>
@@ -4102,14 +4101,11 @@
       <c r="AA29" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB29" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC29" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" s="8" customFormat="1" spans="1:29">
+      <c r="AB29" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" s="8" customFormat="1" spans="1:28">
       <c r="A30" s="12">
         <v>900</v>
       </c>
@@ -4157,6 +4153,9 @@
       <c r="R30" s="8">
         <v>0</v>
       </c>
+      <c r="S30" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="T30" s="12" t="s">
         <v>54</v>
       </c>
@@ -4181,14 +4180,11 @@
       <c r="AA30" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="AB30" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC30" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" s="8" customFormat="1" spans="1:29">
+      <c r="AB30" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" s="8" customFormat="1" spans="1:28">
       <c r="A31" s="12">
         <v>901</v>
       </c>
@@ -4233,6 +4229,9 @@
       <c r="R31" s="8">
         <v>0</v>
       </c>
+      <c r="S31" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="T31" s="12" t="s">
         <v>56</v>
       </c>
@@ -4257,14 +4256,11 @@
       <c r="AA31" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AB31" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC31" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" s="8" customFormat="1" spans="1:29">
+      <c r="AB31" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" s="8" customFormat="1" spans="1:28">
       <c r="A32" s="12">
         <v>503001</v>
       </c>
@@ -4309,6 +4305,9 @@
       <c r="R32" s="8">
         <v>0</v>
       </c>
+      <c r="S32" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="T32" s="12" t="s">
         <v>57</v>
       </c>
@@ -4333,14 +4332,11 @@
       <c r="AA32" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AB32" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC32" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" s="9" customFormat="1" spans="1:29">
+      <c r="AB32" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" s="9" customFormat="1" spans="1:28">
       <c r="A33" s="13">
         <v>1000003</v>
       </c>
@@ -4389,6 +4385,9 @@
       <c r="R33" s="9">
         <v>0</v>
       </c>
+      <c r="S33" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="T33" s="14" t="s">
         <v>58</v>
       </c>
@@ -4413,14 +4412,11 @@
       <c r="AA33" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AB33" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC33" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" s="8" customFormat="1" spans="1:29">
+      <c r="AB33" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" s="8" customFormat="1" spans="1:28">
       <c r="A34" s="12">
         <v>2000001</v>
       </c>
@@ -4468,6 +4464,9 @@
       <c r="R34" s="8">
         <v>0</v>
       </c>
+      <c r="S34" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T34" s="12" t="s">
         <v>60</v>
       </c>
@@ -4492,14 +4491,11 @@
       <c r="AA34" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB34" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC34" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" s="8" customFormat="1" spans="1:29">
+      <c r="AB34" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" s="8" customFormat="1" spans="1:28">
       <c r="A35" s="12">
         <v>2000001</v>
       </c>
@@ -4547,6 +4543,9 @@
       <c r="R35" s="8">
         <v>0</v>
       </c>
+      <c r="S35" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T35" s="12" t="s">
         <v>60</v>
       </c>
@@ -4571,14 +4570,11 @@
       <c r="AA35" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB35" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC35" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" s="8" customFormat="1" spans="1:29">
+      <c r="AB35" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" s="8" customFormat="1" spans="1:28">
       <c r="A36" s="12">
         <v>2000001</v>
       </c>
@@ -4626,6 +4622,9 @@
       <c r="R36" s="8">
         <v>0</v>
       </c>
+      <c r="S36" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T36" s="12" t="s">
         <v>60</v>
       </c>
@@ -4650,14 +4649,11 @@
       <c r="AA36" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB36" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC36" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" s="8" customFormat="1" spans="1:29">
+      <c r="AB36" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" s="8" customFormat="1" spans="1:28">
       <c r="A37" s="12">
         <v>2000001</v>
       </c>
@@ -4705,6 +4701,9 @@
       <c r="R37" s="8">
         <v>0</v>
       </c>
+      <c r="S37" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T37" s="12" t="s">
         <v>60</v>
       </c>
@@ -4729,14 +4728,11 @@
       <c r="AA37" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB37" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC37" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" s="8" customFormat="1" spans="1:29">
+      <c r="AB37" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" s="8" customFormat="1" spans="1:28">
       <c r="A38" s="12">
         <v>2000001</v>
       </c>
@@ -4784,6 +4780,9 @@
       <c r="R38" s="8">
         <v>0</v>
       </c>
+      <c r="S38" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T38" s="12" t="s">
         <v>60</v>
       </c>
@@ -4808,14 +4807,11 @@
       <c r="AA38" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB38" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC38" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" s="8" customFormat="1" spans="1:29">
+      <c r="AB38" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" s="8" customFormat="1" spans="1:28">
       <c r="A39" s="12">
         <v>2000001</v>
       </c>
@@ -4863,6 +4859,9 @@
       <c r="R39" s="8">
         <v>0</v>
       </c>
+      <c r="S39" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T39" s="12" t="s">
         <v>60</v>
       </c>
@@ -4887,14 +4886,11 @@
       <c r="AA39" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB39" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC39" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" s="8" customFormat="1" spans="1:29">
+      <c r="AB39" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" s="8" customFormat="1" spans="1:28">
       <c r="A40" s="12">
         <v>900</v>
       </c>
@@ -4942,6 +4938,9 @@
       <c r="R40" s="8">
         <v>0</v>
       </c>
+      <c r="S40" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="T40" s="12" t="s">
         <v>54</v>
       </c>
@@ -4966,14 +4965,11 @@
       <c r="AA40" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="AB40" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC40" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" s="8" customFormat="1" spans="1:29">
+      <c r="AB40" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" s="8" customFormat="1" spans="1:28">
       <c r="A41" s="12">
         <v>901</v>
       </c>
@@ -5018,6 +5014,9 @@
       <c r="R41" s="8">
         <v>0</v>
       </c>
+      <c r="S41" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="T41" s="12" t="s">
         <v>56</v>
       </c>
@@ -5042,14 +5041,11 @@
       <c r="AA41" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AB41" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC41" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" s="8" customFormat="1" spans="1:29">
+      <c r="AB41" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" s="8" customFormat="1" spans="1:28">
       <c r="A42" s="12">
         <v>503001</v>
       </c>
@@ -5094,6 +5090,9 @@
       <c r="R42" s="8">
         <v>0</v>
       </c>
+      <c r="S42" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="T42" s="12" t="s">
         <v>57</v>
       </c>
@@ -5118,14 +5117,11 @@
       <c r="AA42" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AB42" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC42" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" s="9" customFormat="1" spans="1:29">
+      <c r="AB42" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" s="9" customFormat="1" spans="1:28">
       <c r="A43" s="13">
         <v>1000003</v>
       </c>
@@ -5174,6 +5170,9 @@
       <c r="R43" s="9">
         <v>0</v>
       </c>
+      <c r="S43" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="T43" s="14" t="s">
         <v>58</v>
       </c>
@@ -5198,14 +5197,11 @@
       <c r="AA43" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AB43" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC43" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" s="8" customFormat="1" spans="1:29">
+      <c r="AB43" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" s="8" customFormat="1" spans="1:28">
       <c r="A44" s="12">
         <v>2000001</v>
       </c>
@@ -5253,6 +5249,9 @@
       <c r="R44" s="8">
         <v>0</v>
       </c>
+      <c r="S44" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T44" s="12" t="s">
         <v>60</v>
       </c>
@@ -5277,14 +5276,11 @@
       <c r="AA44" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB44" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC44" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" s="8" customFormat="1" spans="1:29">
+      <c r="AB44" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" s="8" customFormat="1" spans="1:28">
       <c r="A45" s="12">
         <v>2000001</v>
       </c>
@@ -5332,6 +5328,9 @@
       <c r="R45" s="8">
         <v>0</v>
       </c>
+      <c r="S45" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T45" s="12" t="s">
         <v>60</v>
       </c>
@@ -5356,14 +5355,11 @@
       <c r="AA45" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB45" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC45" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" s="8" customFormat="1" spans="1:29">
+      <c r="AB45" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" s="8" customFormat="1" spans="1:28">
       <c r="A46" s="12">
         <v>2000001</v>
       </c>
@@ -5411,6 +5407,9 @@
       <c r="R46" s="8">
         <v>0</v>
       </c>
+      <c r="S46" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T46" s="12" t="s">
         <v>60</v>
       </c>
@@ -5435,14 +5434,11 @@
       <c r="AA46" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB46" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC46" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" s="8" customFormat="1" spans="1:29">
+      <c r="AB46" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" s="8" customFormat="1" spans="1:28">
       <c r="A47" s="12">
         <v>2000001</v>
       </c>
@@ -5490,6 +5486,9 @@
       <c r="R47" s="8">
         <v>0</v>
       </c>
+      <c r="S47" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T47" s="12" t="s">
         <v>60</v>
       </c>
@@ -5514,14 +5513,11 @@
       <c r="AA47" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB47" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC47" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" s="8" customFormat="1" spans="1:29">
+      <c r="AB47" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" s="8" customFormat="1" spans="1:28">
       <c r="A48" s="12">
         <v>2000001</v>
       </c>
@@ -5569,6 +5565,9 @@
       <c r="R48" s="8">
         <v>0</v>
       </c>
+      <c r="S48" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T48" s="12" t="s">
         <v>60</v>
       </c>
@@ -5593,14 +5592,11 @@
       <c r="AA48" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB48" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC48" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" s="8" customFormat="1" spans="1:29">
+      <c r="AB48" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" s="8" customFormat="1" spans="1:28">
       <c r="A49" s="12">
         <v>2000001</v>
       </c>
@@ -5648,6 +5644,9 @@
       <c r="R49" s="8">
         <v>0</v>
       </c>
+      <c r="S49" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T49" s="12" t="s">
         <v>60</v>
       </c>
@@ -5672,14 +5671,11 @@
       <c r="AA49" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB49" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC49" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" s="8" customFormat="1" spans="1:29">
+      <c r="AB49" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" s="8" customFormat="1" spans="1:28">
       <c r="A50" s="12">
         <v>900</v>
       </c>
@@ -5727,6 +5723,9 @@
       <c r="R50" s="8">
         <v>0</v>
       </c>
+      <c r="S50" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="T50" s="12" t="s">
         <v>54</v>
       </c>
@@ -5751,14 +5750,11 @@
       <c r="AA50" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="AB50" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC50" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" s="8" customFormat="1" spans="1:29">
+      <c r="AB50" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" s="8" customFormat="1" spans="1:28">
       <c r="A51" s="12">
         <v>901</v>
       </c>
@@ -5803,6 +5799,9 @@
       <c r="R51" s="8">
         <v>0</v>
       </c>
+      <c r="S51" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="T51" s="12" t="s">
         <v>56</v>
       </c>
@@ -5827,14 +5826,11 @@
       <c r="AA51" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AB51" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC51" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" s="8" customFormat="1" spans="1:29">
+      <c r="AB51" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" s="8" customFormat="1" spans="1:28">
       <c r="A52" s="12">
         <v>503001</v>
       </c>
@@ -5879,6 +5875,9 @@
       <c r="R52" s="8">
         <v>0</v>
       </c>
+      <c r="S52" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="T52" s="12" t="s">
         <v>57</v>
       </c>
@@ -5903,14 +5902,11 @@
       <c r="AA52" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AB52" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC52" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" s="9" customFormat="1" spans="1:29">
+      <c r="AB52" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" s="9" customFormat="1" spans="1:28">
       <c r="A53" s="13">
         <v>1000003</v>
       </c>
@@ -5959,6 +5955,9 @@
       <c r="R53" s="9">
         <v>0</v>
       </c>
+      <c r="S53" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="T53" s="14" t="s">
         <v>58</v>
       </c>
@@ -5983,14 +5982,11 @@
       <c r="AA53" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AB53" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC53" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" s="8" customFormat="1" spans="1:29">
+      <c r="AB53" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" s="8" customFormat="1" spans="1:28">
       <c r="A54" s="12">
         <v>2000001</v>
       </c>
@@ -6038,6 +6034,9 @@
       <c r="R54" s="8">
         <v>0</v>
       </c>
+      <c r="S54" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T54" s="12" t="s">
         <v>60</v>
       </c>
@@ -6062,14 +6061,11 @@
       <c r="AA54" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB54" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC54" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" s="8" customFormat="1" spans="1:29">
+      <c r="AB54" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" s="8" customFormat="1" spans="1:28">
       <c r="A55" s="12">
         <v>2000001</v>
       </c>
@@ -6117,6 +6113,9 @@
       <c r="R55" s="8">
         <v>0</v>
       </c>
+      <c r="S55" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T55" s="12" t="s">
         <v>60</v>
       </c>
@@ -6141,14 +6140,11 @@
       <c r="AA55" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB55" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC55" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" s="8" customFormat="1" spans="1:29">
+      <c r="AB55" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" s="8" customFormat="1" spans="1:28">
       <c r="A56" s="12">
         <v>2000001</v>
       </c>
@@ -6196,6 +6192,9 @@
       <c r="R56" s="8">
         <v>0</v>
       </c>
+      <c r="S56" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T56" s="12" t="s">
         <v>60</v>
       </c>
@@ -6220,14 +6219,11 @@
       <c r="AA56" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB56" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC56" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" s="8" customFormat="1" spans="1:29">
+      <c r="AB56" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" s="8" customFormat="1" spans="1:28">
       <c r="A57" s="12">
         <v>2000001</v>
       </c>
@@ -6275,6 +6271,9 @@
       <c r="R57" s="8">
         <v>0</v>
       </c>
+      <c r="S57" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T57" s="12" t="s">
         <v>60</v>
       </c>
@@ -6299,14 +6298,11 @@
       <c r="AA57" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB57" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC57" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" s="8" customFormat="1" spans="1:29">
+      <c r="AB57" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" s="8" customFormat="1" spans="1:28">
       <c r="A58" s="12">
         <v>2000001</v>
       </c>
@@ -6354,6 +6350,9 @@
       <c r="R58" s="8">
         <v>0</v>
       </c>
+      <c r="S58" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T58" s="12" t="s">
         <v>60</v>
       </c>
@@ -6378,14 +6377,11 @@
       <c r="AA58" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB58" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC58" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" s="8" customFormat="1" spans="1:29">
+      <c r="AB58" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" s="8" customFormat="1" spans="1:28">
       <c r="A59" s="12">
         <v>2000001</v>
       </c>
@@ -6433,6 +6429,9 @@
       <c r="R59" s="8">
         <v>0</v>
       </c>
+      <c r="S59" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T59" s="12" t="s">
         <v>60</v>
       </c>
@@ -6457,14 +6456,11 @@
       <c r="AA59" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB59" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC59" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" s="8" customFormat="1" spans="1:29">
+      <c r="AB59" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" s="8" customFormat="1" spans="1:28">
       <c r="A60" s="12">
         <v>900</v>
       </c>
@@ -6512,6 +6508,9 @@
       <c r="R60" s="8">
         <v>0</v>
       </c>
+      <c r="S60" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="T60" s="12" t="s">
         <v>54</v>
       </c>
@@ -6536,14 +6535,11 @@
       <c r="AA60" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="AB60" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC60" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" s="8" customFormat="1" spans="1:29">
+      <c r="AB60" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" s="8" customFormat="1" spans="1:28">
       <c r="A61" s="12">
         <v>901</v>
       </c>
@@ -6588,6 +6584,9 @@
       <c r="R61" s="8">
         <v>0</v>
       </c>
+      <c r="S61" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="T61" s="12" t="s">
         <v>56</v>
       </c>
@@ -6612,14 +6611,11 @@
       <c r="AA61" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AB61" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC61" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" s="8" customFormat="1" spans="1:29">
+      <c r="AB61" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" s="8" customFormat="1" spans="1:28">
       <c r="A62" s="12">
         <v>503001</v>
       </c>
@@ -6664,6 +6660,9 @@
       <c r="R62" s="8">
         <v>0</v>
       </c>
+      <c r="S62" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="T62" s="12" t="s">
         <v>57</v>
       </c>
@@ -6688,14 +6687,11 @@
       <c r="AA62" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AB62" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC62" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" s="9" customFormat="1" spans="1:29">
+      <c r="AB62" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" s="9" customFormat="1" spans="1:28">
       <c r="A63" s="13">
         <v>1000003</v>
       </c>
@@ -6744,6 +6740,9 @@
       <c r="R63" s="9">
         <v>0</v>
       </c>
+      <c r="S63" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="T63" s="14" t="s">
         <v>58</v>
       </c>
@@ -6768,14 +6767,11 @@
       <c r="AA63" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AB63" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC63" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" s="8" customFormat="1" spans="1:29">
+      <c r="AB63" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" s="8" customFormat="1" spans="1:28">
       <c r="A64" s="12">
         <v>2000001</v>
       </c>
@@ -6823,6 +6819,9 @@
       <c r="R64" s="8">
         <v>0</v>
       </c>
+      <c r="S64" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T64" s="12" t="s">
         <v>60</v>
       </c>
@@ -6847,14 +6846,11 @@
       <c r="AA64" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB64" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC64" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" s="8" customFormat="1" spans="1:29">
+      <c r="AB64" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" s="8" customFormat="1" spans="1:28">
       <c r="A65" s="12">
         <v>2000001</v>
       </c>
@@ -6902,6 +6898,9 @@
       <c r="R65" s="8">
         <v>0</v>
       </c>
+      <c r="S65" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T65" s="12" t="s">
         <v>60</v>
       </c>
@@ -6926,14 +6925,11 @@
       <c r="AA65" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB65" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC65" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" s="8" customFormat="1" spans="1:29">
+      <c r="AB65" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" s="8" customFormat="1" spans="1:28">
       <c r="A66" s="12">
         <v>2000001</v>
       </c>
@@ -6981,6 +6977,9 @@
       <c r="R66" s="8">
         <v>0</v>
       </c>
+      <c r="S66" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T66" s="12" t="s">
         <v>60</v>
       </c>
@@ -7005,14 +7004,11 @@
       <c r="AA66" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB66" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC66" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" s="9" customFormat="1" spans="1:29">
+      <c r="AB66" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" s="9" customFormat="1" spans="1:28">
       <c r="A67" s="13">
         <v>1000003</v>
       </c>
@@ -7061,6 +7057,9 @@
       <c r="R67" s="9">
         <v>0</v>
       </c>
+      <c r="S67" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="T67" s="14" t="s">
         <v>58</v>
       </c>
@@ -7085,14 +7084,11 @@
       <c r="AA67" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AB67" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC67" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" s="8" customFormat="1" spans="1:29">
+      <c r="AB67" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" s="8" customFormat="1" spans="1:28">
       <c r="A68" s="12">
         <v>2000001</v>
       </c>
@@ -7140,6 +7136,9 @@
       <c r="R68" s="8">
         <v>0</v>
       </c>
+      <c r="S68" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T68" s="12" t="s">
         <v>60</v>
       </c>
@@ -7164,14 +7163,11 @@
       <c r="AA68" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB68" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC68" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" s="8" customFormat="1" spans="1:29">
+      <c r="AB68" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" s="8" customFormat="1" spans="1:28">
       <c r="A69" s="12">
         <v>2000001</v>
       </c>
@@ -7219,6 +7215,9 @@
       <c r="R69" s="8">
         <v>0</v>
       </c>
+      <c r="S69" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T69" s="12" t="s">
         <v>60</v>
       </c>
@@ -7243,14 +7242,11 @@
       <c r="AA69" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB69" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC69" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" s="8" customFormat="1" spans="1:29">
+      <c r="AB69" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" s="8" customFormat="1" spans="1:28">
       <c r="A70" s="12">
         <v>2000001</v>
       </c>
@@ -7298,6 +7294,9 @@
       <c r="R70" s="8">
         <v>0</v>
       </c>
+      <c r="S70" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T70" s="12" t="s">
         <v>60</v>
       </c>
@@ -7322,14 +7321,11 @@
       <c r="AA70" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB70" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC70" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" s="8" customFormat="1" spans="1:29">
+      <c r="AB70" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" s="8" customFormat="1" spans="1:28">
       <c r="A71" s="12">
         <v>2000001</v>
       </c>
@@ -7377,6 +7373,9 @@
       <c r="R71" s="8">
         <v>0</v>
       </c>
+      <c r="S71" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T71" s="12" t="s">
         <v>60</v>
       </c>
@@ -7401,14 +7400,11 @@
       <c r="AA71" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB71" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC71" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" s="8" customFormat="1" spans="1:29">
+      <c r="AB71" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" s="8" customFormat="1" spans="1:28">
       <c r="A72" s="12">
         <v>2000001</v>
       </c>
@@ -7456,6 +7452,9 @@
       <c r="R72" s="8">
         <v>0</v>
       </c>
+      <c r="S72" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T72" s="12" t="s">
         <v>60</v>
       </c>
@@ -7480,14 +7479,11 @@
       <c r="AA72" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB72" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC72" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" s="8" customFormat="1" spans="1:29">
+      <c r="AB72" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" s="8" customFormat="1" spans="1:28">
       <c r="A73" s="12">
         <v>2000001</v>
       </c>
@@ -7535,6 +7531,9 @@
       <c r="R73" s="8">
         <v>0</v>
       </c>
+      <c r="S73" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T73" s="12" t="s">
         <v>60</v>
       </c>
@@ -7559,14 +7558,11 @@
       <c r="AA73" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB73" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC73" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" s="8" customFormat="1" spans="1:29">
+      <c r="AB73" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" s="8" customFormat="1" spans="1:28">
       <c r="A74" s="12">
         <v>900</v>
       </c>
@@ -7614,6 +7610,9 @@
       <c r="R74" s="8">
         <v>0</v>
       </c>
+      <c r="S74" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="T74" s="12" t="s">
         <v>54</v>
       </c>
@@ -7638,14 +7637,11 @@
       <c r="AA74" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="AB74" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC74" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" s="8" customFormat="1" spans="1:29">
+      <c r="AB74" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" s="8" customFormat="1" spans="1:28">
       <c r="A75" s="12">
         <v>901</v>
       </c>
@@ -7690,6 +7686,9 @@
       <c r="R75" s="8">
         <v>0</v>
       </c>
+      <c r="S75" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="T75" s="12" t="s">
         <v>56</v>
       </c>
@@ -7714,14 +7713,11 @@
       <c r="AA75" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AB75" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC75" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" s="8" customFormat="1" spans="1:29">
+      <c r="AB75" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" s="8" customFormat="1" spans="1:28">
       <c r="A76" s="12">
         <v>503001</v>
       </c>
@@ -7766,6 +7762,9 @@
       <c r="R76" s="8">
         <v>0</v>
       </c>
+      <c r="S76" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="T76" s="12" t="s">
         <v>57</v>
       </c>
@@ -7790,14 +7789,11 @@
       <c r="AA76" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AB76" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC76" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" s="9" customFormat="1" spans="1:29">
+      <c r="AB76" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" s="9" customFormat="1" spans="1:28">
       <c r="A77" s="13">
         <v>1000003</v>
       </c>
@@ -7846,6 +7842,9 @@
       <c r="R77" s="9">
         <v>0</v>
       </c>
+      <c r="S77" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="T77" s="14" t="s">
         <v>58</v>
       </c>
@@ -7870,14 +7869,11 @@
       <c r="AA77" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AB77" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC77" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" s="8" customFormat="1" spans="1:29">
+      <c r="AB77" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" s="8" customFormat="1" spans="1:28">
       <c r="A78" s="12">
         <v>2000001</v>
       </c>
@@ -7925,6 +7921,9 @@
       <c r="R78" s="8">
         <v>0</v>
       </c>
+      <c r="S78" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T78" s="12" t="s">
         <v>60</v>
       </c>
@@ -7949,14 +7948,11 @@
       <c r="AA78" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB78" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC78" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" s="8" customFormat="1" spans="1:29">
+      <c r="AB78" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" s="8" customFormat="1" spans="1:28">
       <c r="A79" s="12">
         <v>2000001</v>
       </c>
@@ -8004,6 +8000,9 @@
       <c r="R79" s="8">
         <v>0</v>
       </c>
+      <c r="S79" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T79" s="12" t="s">
         <v>60</v>
       </c>
@@ -8028,14 +8027,11 @@
       <c r="AA79" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB79" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC79" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" s="8" customFormat="1" spans="1:29">
+      <c r="AB79" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" s="8" customFormat="1" spans="1:28">
       <c r="A80" s="12">
         <v>2000001</v>
       </c>
@@ -8083,6 +8079,9 @@
       <c r="R80" s="8">
         <v>0</v>
       </c>
+      <c r="S80" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T80" s="12" t="s">
         <v>60</v>
       </c>
@@ -8107,14 +8106,11 @@
       <c r="AA80" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB80" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC80" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" s="8" customFormat="1" spans="1:29">
+      <c r="AB80" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" s="8" customFormat="1" spans="1:28">
       <c r="A81" s="12">
         <v>2000001</v>
       </c>
@@ -8162,6 +8158,9 @@
       <c r="R81" s="8">
         <v>0</v>
       </c>
+      <c r="S81" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T81" s="12" t="s">
         <v>60</v>
       </c>
@@ -8186,14 +8185,11 @@
       <c r="AA81" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB81" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC81" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" s="8" customFormat="1" spans="1:29">
+      <c r="AB81" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" s="8" customFormat="1" spans="1:28">
       <c r="A82" s="12">
         <v>2000001</v>
       </c>
@@ -8241,6 +8237,9 @@
       <c r="R82" s="8">
         <v>0</v>
       </c>
+      <c r="S82" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T82" s="12" t="s">
         <v>60</v>
       </c>
@@ -8265,14 +8264,11 @@
       <c r="AA82" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB82" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC82" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" s="8" customFormat="1" spans="1:29">
+      <c r="AB82" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" s="8" customFormat="1" spans="1:28">
       <c r="A83" s="12">
         <v>2000001</v>
       </c>
@@ -8320,6 +8316,9 @@
       <c r="R83" s="8">
         <v>0</v>
       </c>
+      <c r="S83" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T83" s="12" t="s">
         <v>60</v>
       </c>
@@ -8344,14 +8343,11 @@
       <c r="AA83" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB83" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC83" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" s="8" customFormat="1" spans="1:29">
+      <c r="AB83" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" s="8" customFormat="1" spans="1:28">
       <c r="A84" s="12">
         <v>900</v>
       </c>
@@ -8399,6 +8395,9 @@
       <c r="R84" s="8">
         <v>0</v>
       </c>
+      <c r="S84" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="T84" s="12" t="s">
         <v>54</v>
       </c>
@@ -8423,14 +8422,11 @@
       <c r="AA84" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="AB84" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC84" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" s="8" customFormat="1" spans="1:29">
+      <c r="AB84" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" s="8" customFormat="1" spans="1:28">
       <c r="A85" s="12">
         <v>901</v>
       </c>
@@ -8475,6 +8471,9 @@
       <c r="R85" s="8">
         <v>0</v>
       </c>
+      <c r="S85" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="T85" s="12" t="s">
         <v>56</v>
       </c>
@@ -8499,14 +8498,11 @@
       <c r="AA85" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AB85" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC85" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" s="8" customFormat="1" spans="1:29">
+      <c r="AB85" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" s="8" customFormat="1" spans="1:28">
       <c r="A86" s="12">
         <v>503001</v>
       </c>
@@ -8551,6 +8547,9 @@
       <c r="R86" s="8">
         <v>0</v>
       </c>
+      <c r="S86" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="T86" s="12" t="s">
         <v>57</v>
       </c>
@@ -8575,14 +8574,11 @@
       <c r="AA86" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AB86" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC86" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" s="9" customFormat="1" spans="1:29">
+      <c r="AB86" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" s="9" customFormat="1" spans="1:28">
       <c r="A87" s="13">
         <v>1000003</v>
       </c>
@@ -8631,6 +8627,9 @@
       <c r="R87" s="9">
         <v>0</v>
       </c>
+      <c r="S87" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="T87" s="14" t="s">
         <v>58</v>
       </c>
@@ -8655,14 +8654,11 @@
       <c r="AA87" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AB87" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC87" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" s="8" customFormat="1" spans="1:29">
+      <c r="AB87" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" s="8" customFormat="1" spans="1:28">
       <c r="A88" s="12">
         <v>2000001</v>
       </c>
@@ -8710,6 +8706,9 @@
       <c r="R88" s="8">
         <v>0</v>
       </c>
+      <c r="S88" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T88" s="12" t="s">
         <v>60</v>
       </c>
@@ -8734,14 +8733,11 @@
       <c r="AA88" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB88" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC88" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" s="8" customFormat="1" spans="1:29">
+      <c r="AB88" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" s="8" customFormat="1" spans="1:28">
       <c r="A89" s="12">
         <v>2000001</v>
       </c>
@@ -8789,6 +8785,9 @@
       <c r="R89" s="8">
         <v>0</v>
       </c>
+      <c r="S89" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T89" s="12" t="s">
         <v>60</v>
       </c>
@@ -8813,14 +8812,11 @@
       <c r="AA89" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB89" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC89" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" s="8" customFormat="1" spans="1:29">
+      <c r="AB89" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" s="8" customFormat="1" spans="1:28">
       <c r="A90" s="12">
         <v>2000001</v>
       </c>
@@ -8868,6 +8864,9 @@
       <c r="R90" s="8">
         <v>0</v>
       </c>
+      <c r="S90" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T90" s="12" t="s">
         <v>60</v>
       </c>
@@ -8892,14 +8891,11 @@
       <c r="AA90" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB90" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC90" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" s="8" customFormat="1" spans="1:29">
+      <c r="AB90" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" s="8" customFormat="1" spans="1:28">
       <c r="A91" s="12">
         <v>2000001</v>
       </c>
@@ -8947,6 +8943,9 @@
       <c r="R91" s="8">
         <v>0</v>
       </c>
+      <c r="S91" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T91" s="12" t="s">
         <v>60</v>
       </c>
@@ -8971,14 +8970,11 @@
       <c r="AA91" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB91" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC91" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" s="9" customFormat="1" spans="1:29">
+      <c r="AB91" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" s="9" customFormat="1" spans="1:28">
       <c r="A92" s="13">
         <v>1000003</v>
       </c>
@@ -9027,6 +9023,9 @@
       <c r="R92" s="9">
         <v>0</v>
       </c>
+      <c r="S92" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="T92" s="14" t="s">
         <v>58</v>
       </c>
@@ -9051,14 +9050,11 @@
       <c r="AA92" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AB92" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC92" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" s="8" customFormat="1" spans="1:29">
+      <c r="AB92" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" s="8" customFormat="1" spans="1:28">
       <c r="A93" s="12">
         <v>2000001</v>
       </c>
@@ -9106,6 +9102,9 @@
       <c r="R93" s="8">
         <v>0</v>
       </c>
+      <c r="S93" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T93" s="12" t="s">
         <v>60</v>
       </c>
@@ -9130,14 +9129,11 @@
       <c r="AA93" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB93" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC93" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" s="8" customFormat="1" spans="1:29">
+      <c r="AB93" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" s="8" customFormat="1" spans="1:28">
       <c r="A94" s="12">
         <v>2000001</v>
       </c>
@@ -9185,6 +9181,9 @@
       <c r="R94" s="8">
         <v>0</v>
       </c>
+      <c r="S94" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T94" s="12" t="s">
         <v>60</v>
       </c>
@@ -9209,14 +9208,11 @@
       <c r="AA94" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB94" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC94" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" s="8" customFormat="1" spans="1:29">
+      <c r="AB94" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" s="8" customFormat="1" spans="1:28">
       <c r="A95" s="12">
         <v>2000001</v>
       </c>
@@ -9264,6 +9260,9 @@
       <c r="R95" s="8">
         <v>0</v>
       </c>
+      <c r="S95" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T95" s="12" t="s">
         <v>60</v>
       </c>
@@ -9288,14 +9287,11 @@
       <c r="AA95" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB95" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC95" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" s="8" customFormat="1" spans="1:29">
+      <c r="AB95" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" s="8" customFormat="1" spans="1:28">
       <c r="A96" s="12">
         <v>2000001</v>
       </c>
@@ -9343,6 +9339,9 @@
       <c r="R96" s="8">
         <v>0</v>
       </c>
+      <c r="S96" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T96" s="12" t="s">
         <v>60</v>
       </c>
@@ -9367,14 +9366,11 @@
       <c r="AA96" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB96" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC96" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" s="8" customFormat="1" spans="1:29">
+      <c r="AB96" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" s="8" customFormat="1" spans="1:28">
       <c r="A97" s="12">
         <v>2000001</v>
       </c>
@@ -9422,6 +9418,9 @@
       <c r="R97" s="8">
         <v>0</v>
       </c>
+      <c r="S97" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T97" s="12" t="s">
         <v>60</v>
       </c>
@@ -9446,14 +9445,11 @@
       <c r="AA97" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB97" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC97" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" s="8" customFormat="1" spans="1:29">
+      <c r="AB97" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" s="8" customFormat="1" spans="1:28">
       <c r="A98" s="12">
         <v>2000001</v>
       </c>
@@ -9501,6 +9497,9 @@
       <c r="R98" s="8">
         <v>0</v>
       </c>
+      <c r="S98" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T98" s="12" t="s">
         <v>60</v>
       </c>
@@ -9525,14 +9524,11 @@
       <c r="AA98" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB98" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC98" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" s="8" customFormat="1" spans="1:29">
+      <c r="AB98" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" s="8" customFormat="1" spans="1:28">
       <c r="A99" s="12">
         <v>900</v>
       </c>
@@ -9580,6 +9576,9 @@
       <c r="R99" s="8">
         <v>0</v>
       </c>
+      <c r="S99" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="T99" s="12" t="s">
         <v>54</v>
       </c>
@@ -9604,14 +9603,11 @@
       <c r="AA99" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="AB99" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC99" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" s="8" customFormat="1" spans="1:29">
+      <c r="AB99" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" s="8" customFormat="1" spans="1:28">
       <c r="A100" s="12">
         <v>901</v>
       </c>
@@ -9656,6 +9652,9 @@
       <c r="R100" s="8">
         <v>0</v>
       </c>
+      <c r="S100" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="T100" s="12" t="s">
         <v>56</v>
       </c>
@@ -9680,14 +9679,11 @@
       <c r="AA100" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AB100" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC100" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" s="8" customFormat="1" spans="1:29">
+      <c r="AB100" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" s="8" customFormat="1" spans="1:28">
       <c r="A101" s="12">
         <v>503001</v>
       </c>
@@ -9732,6 +9728,9 @@
       <c r="R101" s="8">
         <v>0</v>
       </c>
+      <c r="S101" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="T101" s="12" t="s">
         <v>57</v>
       </c>
@@ -9756,14 +9755,11 @@
       <c r="AA101" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AB101" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC101" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" s="9" customFormat="1" spans="1:29">
+      <c r="AB101" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" s="9" customFormat="1" spans="1:28">
       <c r="A102" s="13">
         <v>1000003</v>
       </c>
@@ -9812,6 +9808,9 @@
       <c r="R102" s="9">
         <v>0</v>
       </c>
+      <c r="S102" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="T102" s="14" t="s">
         <v>58</v>
       </c>
@@ -9836,14 +9835,11 @@
       <c r="AA102" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AB102" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC102" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" s="8" customFormat="1" spans="1:29">
+      <c r="AB102" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" s="8" customFormat="1" spans="1:28">
       <c r="A103" s="12">
         <v>2000001</v>
       </c>
@@ -9891,6 +9887,9 @@
       <c r="R103" s="8">
         <v>0</v>
       </c>
+      <c r="S103" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T103" s="12" t="s">
         <v>60</v>
       </c>
@@ -9915,14 +9914,11 @@
       <c r="AA103" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB103" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC103" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" s="8" customFormat="1" spans="1:29">
+      <c r="AB103" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" s="8" customFormat="1" spans="1:28">
       <c r="A104" s="12">
         <v>2000001</v>
       </c>
@@ -9970,6 +9966,9 @@
       <c r="R104" s="8">
         <v>0</v>
       </c>
+      <c r="S104" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T104" s="12" t="s">
         <v>60</v>
       </c>
@@ -9994,14 +9993,11 @@
       <c r="AA104" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB104" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC104" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" s="8" customFormat="1" spans="1:29">
+      <c r="AB104" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" s="8" customFormat="1" spans="1:28">
       <c r="A105" s="12">
         <v>2000001</v>
       </c>
@@ -10049,6 +10045,9 @@
       <c r="R105" s="8">
         <v>0</v>
       </c>
+      <c r="S105" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T105" s="12" t="s">
         <v>60</v>
       </c>
@@ -10073,14 +10072,11 @@
       <c r="AA105" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB105" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC105" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" s="8" customFormat="1" spans="1:29">
+      <c r="AB105" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" s="8" customFormat="1" spans="1:28">
       <c r="A106" s="12">
         <v>2000001</v>
       </c>
@@ -10128,6 +10124,9 @@
       <c r="R106" s="8">
         <v>0</v>
       </c>
+      <c r="S106" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T106" s="12" t="s">
         <v>60</v>
       </c>
@@ -10152,14 +10151,11 @@
       <c r="AA106" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB106" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC106" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" s="8" customFormat="1" spans="1:29">
+      <c r="AB106" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" s="8" customFormat="1" spans="1:28">
       <c r="A107" s="12">
         <v>2000001</v>
       </c>
@@ -10207,6 +10203,9 @@
       <c r="R107" s="8">
         <v>0</v>
       </c>
+      <c r="S107" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T107" s="12" t="s">
         <v>60</v>
       </c>
@@ -10231,14 +10230,11 @@
       <c r="AA107" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB107" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC107" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" s="8" customFormat="1" spans="1:29">
+      <c r="AB107" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" s="8" customFormat="1" spans="1:28">
       <c r="A108" s="12">
         <v>2000001</v>
       </c>
@@ -10286,6 +10282,9 @@
       <c r="R108" s="8">
         <v>0</v>
       </c>
+      <c r="S108" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T108" s="12" t="s">
         <v>60</v>
       </c>
@@ -10310,14 +10309,11 @@
       <c r="AA108" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB108" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC108" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" s="8" customFormat="1" spans="1:29">
+      <c r="AB108" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" s="8" customFormat="1" spans="1:28">
       <c r="A109" s="12">
         <v>900</v>
       </c>
@@ -10365,6 +10361,9 @@
       <c r="R109" s="8">
         <v>0</v>
       </c>
+      <c r="S109" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="T109" s="12" t="s">
         <v>54</v>
       </c>
@@ -10389,14 +10388,11 @@
       <c r="AA109" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="AB109" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC109" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" s="8" customFormat="1" spans="1:29">
+      <c r="AB109" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" s="8" customFormat="1" spans="1:28">
       <c r="A110" s="12">
         <v>901</v>
       </c>
@@ -10441,6 +10437,9 @@
       <c r="R110" s="8">
         <v>0</v>
       </c>
+      <c r="S110" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="T110" s="12" t="s">
         <v>56</v>
       </c>
@@ -10465,14 +10464,11 @@
       <c r="AA110" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AB110" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC110" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" s="8" customFormat="1" spans="1:29">
+      <c r="AB110" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" s="8" customFormat="1" spans="1:28">
       <c r="A111" s="12">
         <v>503001</v>
       </c>
@@ -10517,6 +10513,9 @@
       <c r="R111" s="8">
         <v>0</v>
       </c>
+      <c r="S111" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="T111" s="12" t="s">
         <v>57</v>
       </c>
@@ -10541,14 +10540,11 @@
       <c r="AA111" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AB111" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC111" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" s="9" customFormat="1" spans="1:29">
+      <c r="AB111" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" s="9" customFormat="1" spans="1:28">
       <c r="A112" s="13">
         <v>1000003</v>
       </c>
@@ -10597,6 +10593,9 @@
       <c r="R112" s="9">
         <v>0</v>
       </c>
+      <c r="S112" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="T112" s="14" t="s">
         <v>58</v>
       </c>
@@ -10621,14 +10620,11 @@
       <c r="AA112" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AB112" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC112" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" s="8" customFormat="1" spans="1:29">
+      <c r="AB112" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" s="8" customFormat="1" spans="1:28">
       <c r="A113" s="12">
         <v>2000001</v>
       </c>
@@ -10676,6 +10672,9 @@
       <c r="R113" s="8">
         <v>0</v>
       </c>
+      <c r="S113" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T113" s="12" t="s">
         <v>60</v>
       </c>
@@ -10700,14 +10699,11 @@
       <c r="AA113" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB113" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC113" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" s="8" customFormat="1" spans="1:29">
+      <c r="AB113" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" s="8" customFormat="1" spans="1:28">
       <c r="A114" s="12">
         <v>2000001</v>
       </c>
@@ -10755,6 +10751,9 @@
       <c r="R114" s="8">
         <v>0</v>
       </c>
+      <c r="S114" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T114" s="12" t="s">
         <v>60</v>
       </c>
@@ -10779,14 +10778,11 @@
       <c r="AA114" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB114" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC114" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" s="8" customFormat="1" spans="1:29">
+      <c r="AB114" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" s="8" customFormat="1" spans="1:28">
       <c r="A115" s="12">
         <v>2000001</v>
       </c>
@@ -10834,6 +10830,9 @@
       <c r="R115" s="8">
         <v>0</v>
       </c>
+      <c r="S115" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T115" s="12" t="s">
         <v>60</v>
       </c>
@@ -10858,14 +10857,11 @@
       <c r="AA115" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB115" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC115" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" s="8" customFormat="1" spans="1:29">
+      <c r="AB115" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" s="8" customFormat="1" spans="1:28">
       <c r="A116" s="12">
         <v>2000001</v>
       </c>
@@ -10913,6 +10909,9 @@
       <c r="R116" s="8">
         <v>0</v>
       </c>
+      <c r="S116" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="T116" s="12" t="s">
         <v>60</v>
       </c>
@@ -10937,10 +10936,7 @@
       <c r="AA116" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB116" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC116" s="8">
+      <c r="AB116" s="8">
         <v>0</v>
       </c>
     </row>
